--- a/Data/register_of_licenses.xlsx
+++ b/Data/register_of_licenses.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\Coding competitions\Digital_Breakthrough\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Реестр лицензий" sheetId="1" r:id="rId1"/>
@@ -13,14 +18,15 @@
     <definedName name="OLE_LINK1" localSheetId="0">'Реестр лицензий'!$N$459</definedName>
     <definedName name="Z_6A51605E_CE25_4A5A_8979_0D24A3C77D00_.wvu.PrintArea" localSheetId="0" hidden="1">'Реестр лицензий'!$A$423:$N$423</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="ACER - Personal View" guid="{A48D2441-DD55-4B7D-BF79-B4F2A1EBC851}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="maksimovaas - Личное представление" guid="{DB14BCEC-5663-473A-8DE0-EC9F9CC63B80}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="850" activeSheetId="1"/>
+    <customWorkbookView name="kuznecovaas - Личное представление" guid="{6A51605E-CE25-4A5A-8979-0D24A3C77D00}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="850" activeSheetId="1"/>
+    <customWorkbookView name="antipinva - Личное представление" guid="{9313A646-DC08-4516-A943-96E8D1D5934B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="850" activeSheetId="1"/>
+    <customWorkbookView name="ЛьвовСА - Личное представление" guid="{CC017067-69FB-4FB4-AC19-DA8F56FB3468}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1904" windowHeight="838" activeSheetId="1"/>
+    <customWorkbookView name="korgutlovav - Личное представление" guid="{E5948E68-A68D-415A-A1EA-89814C35EF98}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="ТоболкинаЛЕ - Личное представление" guid="{05A1A731-3F4F-40FE-B386-DDA871C5E4C7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="963" windowHeight="798" activeSheetId="1"/>
-    <customWorkbookView name="korgutlovav - Личное представление" guid="{E5948E68-A68D-415A-A1EA-89814C35EF98}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="ЛьвовСА - Личное представление" guid="{CC017067-69FB-4FB4-AC19-DA8F56FB3468}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1904" windowHeight="838" activeSheetId="1"/>
-    <customWorkbookView name="antipinva - Личное представление" guid="{9313A646-DC08-4516-A943-96E8D1D5934B}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="850" activeSheetId="1"/>
-    <customWorkbookView name="kuznecovaas - Личное представление" guid="{6A51605E-CE25-4A5A-8979-0D24A3C77D00}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="850" activeSheetId="1"/>
-    <customWorkbookView name="maksimovaas - Личное представление" guid="{DB14BCEC-5663-473A-8DE0-EC9F9CC63B80}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="850" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -19365,8 +19371,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19711,6 +19717,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -19720,27 +19729,24 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -19756,38 +19762,13 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{2AB911D2-BCFF-40E6-A6A3-EFF32324D515}" diskRevisions="1" revisionId="1696" version="16">
-  <header guid="{22309E3C-0714-4704-9DBE-AD2F93983A38}" dateTime="2021-10-11T15:12:37" maxSheetId="2" userName="maksimovaas" r:id="rId898">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E2391B15-4C1C-4790-88DB-4B9208E8E28E}" diskRevisions="1" revisionId="1696" version="17">
+  <header guid="{2AB911D2-BCFF-40E6-A6A3-EFF32324D515}" dateTime="2021-10-22T14:48:55" maxSheetId="2" userName="maksimovaas" r:id="rId904" minRId="1696">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{E3375DF1-8A13-4DFF-9A7B-775C3ED7C4CB}" dateTime="2021-10-11T15:18:15" maxSheetId="2" userName="maksimovaas" r:id="rId899" minRId="1683" maxRId="1693">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{85FAFD50-7780-4B43-BFC5-085A62677A99}" dateTime="2021-10-11T15:23:52" maxSheetId="2" userName="maksimovaas" r:id="rId900" minRId="1694" maxRId="1695">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{82112253-6D60-4C95-A89E-E7112019179F}" dateTime="2021-10-11T15:25:09" maxSheetId="2" userName="maksimovaas" r:id="rId901">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{25102BA3-C6DF-4D27-A64C-3D896EADCA67}" dateTime="2021-10-11T15:25:11" maxSheetId="2" userName="maksimovaas" r:id="rId902">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3C4FFADE-2C39-433E-A3E2-76CD8C653C19}" dateTime="2021-10-11T15:25:27" maxSheetId="2" userName="maksimovaas" r:id="rId903">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2AB911D2-BCFF-40E6-A6A3-EFF32324D515}" dateTime="2021-10-22T14:48:55" maxSheetId="2" userName="maksimovaas" r:id="rId904" minRId="1696">
+  <header guid="{E2391B15-4C1C-4790-88DB-4B9208E8E28E}" dateTime="2021-11-12T23:42:19" maxSheetId="2" userName="ACER" r:id="rId905">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -19810,565 +19791,20 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1694" sId="1">
-    <oc r="M468" t="inlineStr">
-      <is>
-        <t>8 (351) 267-47-47</t>
-      </is>
-    </oc>
-    <nc r="M468" t="inlineStr">
-      <is>
-        <t>8 (351) 214-14-15            8 (351) 247-37-22</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1695" sId="1">
-    <oc r="N468" t="inlineStr">
-      <is>
-        <r>
-          <t>454010, Челябинская обл., г. Челябинск, ул. Енисейская, д. 53Д</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="13.5"/>
-            <color theme="1"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-            <charset val="204"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </is>
-    </oc>
-    <nc r="N468" t="inlineStr">
-      <is>
-        <t>454053, Челябинская обл., г. Челябинск, тракт Троицкий, д. 50В</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{DB14BCEC-5663-473A-8DE0-EC9F9CC63B80}" action="delete"/>
-  <rcv guid="{DB14BCEC-5663-473A-8DE0-EC9F9CC63B80}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rfmt sheetId="1" sqref="A468" start="0" length="0">
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="B468" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="C468" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="1683" sId="1" odxf="1" dxf="1">
-    <nc r="D468" t="inlineStr">
-      <is>
-        <t>Министерство промышленности, новых технологий и природных ресурсов Челябинской области</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" wrapText="0" readingOrder="0"/>
-      <border outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="E468" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="F468" start="0" length="0">
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="G468" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="H468" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="1684" sId="1" odxf="1" dxf="1">
-    <nc r="I468" t="inlineStr">
-      <is>
-        <t xml:space="preserve">заготовка, хранение, переработка и реализация лома черных металлов; заготовка, хранение, переработка и реализация лома цветных металлов    </t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" wrapText="0" readingOrder="0"/>
-      <border outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="J468" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="K468" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="L468" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="13.5"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="1685" sId="1" odxf="1" dxf="1">
-    <nc r="M468" t="inlineStr">
-      <is>
-        <t>8 (351) 267-47-47</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" wrapText="0" readingOrder="0"/>
-      <border outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="1686" sId="1" odxf="1" dxf="1">
-    <nc r="N468" t="inlineStr">
-      <is>
-        <r>
-          <t>454010, Челябинская обл., г. Челябинск, ул. Енисейская, д. 53Д</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="13.5"/>
-            <color theme="1"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-            <charset val="204"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" wrapText="0" readingOrder="0"/>
-      <border outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="13.5"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="1687" sId="1">
-    <nc r="A468">
-      <v>421</v>
-    </nc>
-  </rcc>
-  <rcc rId="1688" sId="1">
-    <nc r="B468">
-      <v>491</v>
-    </nc>
-  </rcc>
-  <rcc rId="1689" sId="1" numFmtId="19">
-    <nc r="C468">
-      <v>44477</v>
-    </nc>
-  </rcc>
-  <rcc rId="1690" sId="1">
-    <nc r="E468" t="inlineStr">
-      <is>
-        <t>Приказ № 459 от 08.10.2021</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1691" sId="1">
-    <nc r="G468" t="inlineStr">
-      <is>
-        <t xml:space="preserve">Общество с ограниченной ответственностью "Атлантида" (ООО "Атлантида") </t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1692" sId="1">
-    <nc r="H468" t="inlineStr">
-      <is>
-        <t>7447073393  1047421512269</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1693" sId="1">
-    <nc r="L468" t="inlineStr">
-      <is>
-        <t>454053, Челябинская обл., г. Челябинск, тракт Троицкий, д. 50В, оф. 307/2</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog151.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{DB14BCEC-5663-473A-8DE0-EC9F9CC63B80}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{DB14BCEC-5663-473A-8DE0-EC9F9CC63B80}" action="delete"/>
-  <rcv guid="{DB14BCEC-5663-473A-8DE0-EC9F9CC63B80}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog161.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{DB14BCEC-5663-473A-8DE0-EC9F9CC63B80}" action="delete"/>
-  <rcv guid="{DB14BCEC-5663-473A-8DE0-EC9F9CC63B80}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1611.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcv guid="{DB14BCEC-5663-473A-8DE0-EC9F9CC63B80}" action="delete"/>
-  <rcv guid="{DB14BCEC-5663-473A-8DE0-EC9F9CC63B80}" action="add"/>
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{A48D2441-DD55-4B7D-BF79-B4F2A1EBC851}" action="add"/>
 </revisions>
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{2AB911D2-BCFF-40E6-A6A3-EFF32324D515}" name="ACER" id="-926323826" dateTime="2021-11-12T20:47:54"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -20406,9 +19842,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -20440,9 +19876,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -20474,9 +19911,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -20649,54 +20087,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W871"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G218" sqref="G218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="39.5703125" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="22.44140625" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" customWidth="1"/>
+    <col min="14" max="14" width="39.5546875" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
         <v>3243</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="177" customHeight="1">
+    <row r="3" spans="1:14" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -20740,7 +20178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" ht="47.25" customHeight="1">
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37">
         <v>1</v>
       </c>
@@ -20778,7 +20216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" ht="77.25" customHeight="1">
+    <row r="5" spans="1:14" s="4" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37">
         <v>2</v>
       </c>
@@ -20814,7 +20252,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="93.75" customHeight="1">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37">
         <v>3</v>
       </c>
@@ -20850,7 +20288,7 @@
         <v>3234</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" ht="288" customHeight="1">
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="288" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="37">
         <v>4</v>
       </c>
@@ -20888,7 +20326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" ht="273.75" customHeight="1">
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="273.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="37">
         <v>5</v>
       </c>
@@ -20926,7 +20364,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="384.75" customHeight="1">
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="384.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37">
         <v>6</v>
       </c>
@@ -20964,7 +20402,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" ht="172.5" customHeight="1">
+    <row r="10" spans="1:14" s="4" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37">
         <v>7</v>
       </c>
@@ -21000,7 +20438,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" ht="137.25" customHeight="1">
+    <row r="11" spans="1:14" s="4" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="34" t="s">
         <v>2467</v>
@@ -21036,7 +20474,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1">
+    <row r="12" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37">
         <v>5</v>
       </c>
@@ -21074,7 +20512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="4" customFormat="1" ht="170.25" customHeight="1">
+    <row r="13" spans="1:14" s="4" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37">
         <v>6</v>
       </c>
@@ -21110,7 +20548,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" ht="216" customHeight="1">
+    <row r="14" spans="1:14" s="4" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37">
         <v>7</v>
       </c>
@@ -21148,7 +20586,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" ht="139.5" customHeight="1">
+    <row r="15" spans="1:14" s="4" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37">
         <v>8</v>
       </c>
@@ -21184,7 +20622,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" ht="149.25" customHeight="1">
+    <row r="16" spans="1:14" s="4" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
         <v>9</v>
       </c>
@@ -21222,7 +20660,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" ht="111" customHeight="1">
+    <row r="17" spans="1:15" s="4" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37">
         <v>10</v>
       </c>
@@ -21260,7 +20698,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" ht="47.25" customHeight="1">
+    <row r="18" spans="1:15" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="37">
         <v>11</v>
       </c>
@@ -21298,7 +20736,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" ht="108.75" customHeight="1">
+    <row r="19" spans="1:15" s="4" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="37"/>
       <c r="B19" s="34" t="s">
         <v>2468</v>
@@ -21334,7 +20772,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" ht="45.75" customHeight="1">
+    <row r="20" spans="1:15" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="37">
         <v>12</v>
       </c>
@@ -21372,7 +20810,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" ht="153.75" customHeight="1">
+    <row r="21" spans="1:15" s="4" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="37">
         <v>13</v>
       </c>
@@ -21411,7 +20849,7 @@
       </c>
       <c r="O21" s="8"/>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" ht="92.25" customHeight="1">
+    <row r="22" spans="1:15" s="4" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="37">
         <v>14</v>
       </c>
@@ -21449,7 +20887,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" ht="365.25" customHeight="1">
+    <row r="23" spans="1:15" s="4" customFormat="1" ht="365.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37">
         <v>15</v>
       </c>
@@ -21487,7 +20925,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" ht="249" customHeight="1">
+    <row r="24" spans="1:15" s="4" customFormat="1" ht="249" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="37"/>
       <c r="B24" s="34"/>
       <c r="C24" s="32" t="s">
@@ -21511,7 +20949,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" ht="90">
+    <row r="25" spans="1:15" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.3">
       <c r="A25" s="37">
         <v>16</v>
       </c>
@@ -21549,7 +20987,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" ht="78.75" customHeight="1">
+    <row r="26" spans="1:15" s="4" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37">
         <v>17</v>
       </c>
@@ -21587,7 +21025,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" ht="48.75" customHeight="1">
+    <row r="27" spans="1:15" s="4" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37">
         <v>18</v>
       </c>
@@ -21625,7 +21063,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" ht="45">
+    <row r="28" spans="1:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A28" s="37">
         <v>19</v>
       </c>
@@ -21659,7 +21097,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1">
+    <row r="29" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
       <c r="B29" s="34" t="s">
         <v>2469</v>
@@ -21695,7 +21133,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" ht="135.75" customHeight="1">
+    <row r="30" spans="1:15" s="4" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="37">
         <v>20</v>
       </c>
@@ -21735,7 +21173,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="135.75" customHeight="1">
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37">
         <v>21</v>
       </c>
@@ -21771,7 +21209,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="4" customFormat="1" ht="77.25" customHeight="1">
+    <row r="32" spans="1:15" s="4" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="37">
         <v>22</v>
       </c>
@@ -21807,7 +21245,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1">
+    <row r="33" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="37"/>
       <c r="B33" s="34" t="s">
         <v>2470</v>
@@ -21841,7 +21279,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="4" customFormat="1" ht="198.75" customHeight="1">
+    <row r="34" spans="1:15" s="4" customFormat="1" ht="198.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="37">
         <v>23</v>
       </c>
@@ -21877,7 +21315,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="4" customFormat="1" ht="153.75" customHeight="1">
+    <row r="35" spans="1:15" s="4" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="37">
         <v>24</v>
       </c>
@@ -21916,7 +21354,7 @@
       </c>
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="1:15" s="4" customFormat="1" ht="276.75" customHeight="1">
+    <row r="36" spans="1:15" s="4" customFormat="1" ht="276.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="37">
         <v>25</v>
       </c>
@@ -21956,7 +21394,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="4" customFormat="1" ht="60">
+    <row r="37" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A37" s="37">
         <v>26</v>
       </c>
@@ -21994,7 +21432,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="4" customFormat="1" ht="150">
+    <row r="38" spans="1:15" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="A38" s="37">
         <v>27</v>
       </c>
@@ -22032,7 +21470,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="4" customFormat="1" ht="152.25" customHeight="1">
+    <row r="39" spans="1:15" s="4" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="37">
         <v>28</v>
       </c>
@@ -22071,7 +21509,7 @@
       </c>
       <c r="O39" s="8"/>
     </row>
-    <row r="40" spans="1:15" s="4" customFormat="1" ht="63" customHeight="1">
+    <row r="40" spans="1:15" s="4" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="37">
         <v>29</v>
       </c>
@@ -22109,7 +21547,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="4" customFormat="1" ht="332.25" customHeight="1">
+    <row r="41" spans="1:15" s="4" customFormat="1" ht="332.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="37">
         <v>30</v>
       </c>
@@ -22145,7 +21583,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="4" customFormat="1" ht="167.25" customHeight="1">
+    <row r="42" spans="1:15" s="4" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="37">
         <v>31</v>
       </c>
@@ -22183,7 +21621,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="4" customFormat="1" ht="90" customHeight="1">
+    <row r="43" spans="1:15" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="37">
         <v>32</v>
       </c>
@@ -22221,7 +21659,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="4" customFormat="1" ht="95.25" customHeight="1">
+    <row r="44" spans="1:15" s="4" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="37">
         <v>33</v>
       </c>
@@ -22259,7 +21697,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="4" customFormat="1" ht="147" customHeight="1">
+    <row r="45" spans="1:15" s="4" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="37">
         <v>34</v>
       </c>
@@ -22297,7 +21735,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="4" customFormat="1" ht="151.5" customHeight="1">
+    <row r="46" spans="1:15" s="4" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="37">
         <v>35</v>
       </c>
@@ -22335,7 +21773,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="4" customFormat="1" ht="109.5" customHeight="1">
+    <row r="47" spans="1:15" s="4" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="37">
         <v>36</v>
       </c>
@@ -22373,7 +21811,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="4" customFormat="1" ht="60">
+    <row r="48" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A48" s="37">
         <v>37</v>
       </c>
@@ -22411,7 +21849,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="4" customFormat="1" ht="186.75" customHeight="1">
+    <row r="49" spans="1:15" s="4" customFormat="1" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="37"/>
       <c r="B49" s="34" t="s">
         <v>2471</v>
@@ -22445,7 +21883,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="4" customFormat="1" ht="75.75" customHeight="1">
+    <row r="50" spans="1:15" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="37">
         <v>38</v>
       </c>
@@ -22483,7 +21921,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="4" customFormat="1" ht="197.25" customHeight="1">
+    <row r="51" spans="1:15" s="4" customFormat="1" ht="197.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="37">
         <v>39</v>
       </c>
@@ -22519,7 +21957,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="4" customFormat="1" ht="110.25" customHeight="1">
+    <row r="52" spans="1:15" s="4" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="37">
         <v>40</v>
       </c>
@@ -22557,7 +21995,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="4" customFormat="1" ht="60">
+    <row r="53" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A53" s="37">
         <v>41</v>
       </c>
@@ -22595,7 +22033,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="4" customFormat="1" ht="63" customHeight="1">
+    <row r="54" spans="1:15" s="4" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="37">
         <v>42</v>
       </c>
@@ -22629,7 +22067,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="4" customFormat="1" ht="60">
+    <row r="55" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A55" s="37">
         <v>43</v>
       </c>
@@ -22667,7 +22105,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1">
+    <row r="56" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="37">
         <v>44</v>
       </c>
@@ -22703,7 +22141,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="4" customFormat="1" ht="79.5" customHeight="1">
+    <row r="57" spans="1:15" s="4" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="37">
         <v>45</v>
       </c>
@@ -22741,7 +22179,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="4" customFormat="1" ht="199.5" customHeight="1">
+    <row r="58" spans="1:15" s="4" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="37">
         <v>46</v>
       </c>
@@ -22782,7 +22220,7 @@
       </c>
       <c r="O58" s="8"/>
     </row>
-    <row r="59" spans="1:15" s="4" customFormat="1" ht="198" customHeight="1">
+    <row r="59" spans="1:15" s="4" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="37">
         <v>47</v>
       </c>
@@ -22820,7 +22258,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="4" customFormat="1" ht="44.25" customHeight="1">
+    <row r="60" spans="1:15" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="37">
         <v>48</v>
       </c>
@@ -22856,7 +22294,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="4" customFormat="1" ht="228" customHeight="1">
+    <row r="61" spans="1:15" s="4" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="37">
         <v>49</v>
       </c>
@@ -22894,7 +22332,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="4" customFormat="1" ht="114.75" customHeight="1">
+    <row r="62" spans="1:15" s="4" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="37"/>
       <c r="B62" s="34" t="s">
         <v>2472</v>
@@ -22928,7 +22366,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="4" customFormat="1" ht="95.25" customHeight="1">
+    <row r="63" spans="1:15" s="4" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="37">
         <v>50</v>
       </c>
@@ -22964,7 +22402,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="4" customFormat="1" ht="185.25" customHeight="1">
+    <row r="64" spans="1:15" s="4" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="37">
         <v>51</v>
       </c>
@@ -23000,7 +22438,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="4" customFormat="1" ht="168" customHeight="1">
+    <row r="65" spans="1:15" s="4" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="37">
         <v>52</v>
       </c>
@@ -23036,7 +22474,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="4" customFormat="1" ht="213.75" customHeight="1">
+    <row r="66" spans="1:15" s="4" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>53</v>
       </c>
@@ -23078,7 +22516,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="4" customFormat="1" ht="121.5" customHeight="1">
+    <row r="67" spans="1:15" s="4" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="37">
         <v>54</v>
       </c>
@@ -23116,7 +22554,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1">
+    <row r="68" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="37"/>
       <c r="B68" s="34" t="s">
         <v>2473</v>
@@ -23152,7 +22590,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="4" customFormat="1" ht="108" customHeight="1">
+    <row r="69" spans="1:15" s="4" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="37">
         <v>55</v>
       </c>
@@ -23190,7 +22628,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="4" customFormat="1" ht="137.25" customHeight="1">
+    <row r="70" spans="1:15" s="4" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="37">
         <v>56</v>
       </c>
@@ -23228,7 +22666,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="4" customFormat="1" ht="93.75" customHeight="1">
+    <row r="71" spans="1:15" s="4" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="37">
         <v>57</v>
       </c>
@@ -23266,7 +22704,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="4" customFormat="1" ht="153" customHeight="1">
+    <row r="72" spans="1:15" s="4" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="37">
         <v>58</v>
       </c>
@@ -23307,7 +22745,7 @@
       </c>
       <c r="O72" s="10"/>
     </row>
-    <row r="73" spans="1:15" s="4" customFormat="1" ht="105">
+    <row r="73" spans="1:15" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.3">
       <c r="A73" s="37">
         <v>59</v>
       </c>
@@ -23345,7 +22783,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="4" customFormat="1" ht="93" customHeight="1">
+    <row r="74" spans="1:15" s="4" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="37">
         <v>60</v>
       </c>
@@ -23383,7 +22821,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="4" customFormat="1" ht="167.25" customHeight="1">
+    <row r="75" spans="1:15" s="4" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="37">
         <v>61</v>
       </c>
@@ -23424,7 +22862,7 @@
       </c>
       <c r="O75" s="8"/>
     </row>
-    <row r="76" spans="1:15" s="4" customFormat="1" ht="285" customHeight="1">
+    <row r="76" spans="1:15" s="4" customFormat="1" ht="285" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="37">
         <v>62</v>
       </c>
@@ -23462,7 +22900,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="4" customFormat="1" ht="60">
+    <row r="77" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A77" s="37">
         <v>63</v>
       </c>
@@ -23500,7 +22938,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="4" customFormat="1" ht="90.75" customHeight="1">
+    <row r="78" spans="1:15" s="4" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="37">
         <v>64</v>
       </c>
@@ -23538,7 +22976,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="4" customFormat="1" ht="60">
+    <row r="79" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A79" s="37">
         <v>65</v>
       </c>
@@ -23576,7 +23014,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1">
+    <row r="80" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="37">
         <v>66</v>
       </c>
@@ -23614,7 +23052,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="4" customFormat="1" ht="74.25">
+    <row r="81" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A81" s="37">
         <v>69</v>
       </c>
@@ -23652,7 +23090,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="82" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="82" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A82" s="37">
         <v>67</v>
       </c>
@@ -23690,7 +23128,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="4" customFormat="1" ht="233.25" customHeight="1">
+    <row r="83" spans="1:14" s="4" customFormat="1" ht="233.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="37">
         <v>68</v>
       </c>
@@ -23728,7 +23166,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="4" customFormat="1" ht="130.5" customHeight="1">
+    <row r="84" spans="1:14" s="4" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="37"/>
       <c r="B84" s="34" t="s">
         <v>2474</v>
@@ -23764,7 +23202,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="4" customFormat="1" ht="213.75" customHeight="1">
+    <row r="85" spans="1:14" s="4" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="37">
         <v>69</v>
       </c>
@@ -23802,7 +23240,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="4" customFormat="1" ht="75">
+    <row r="86" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A86" s="37">
         <v>70</v>
       </c>
@@ -23838,7 +23276,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="4" customFormat="1" ht="108" customHeight="1">
+    <row r="87" spans="1:14" s="4" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="37">
         <v>71</v>
       </c>
@@ -23874,7 +23312,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="4" customFormat="1" ht="105">
+    <row r="88" spans="1:14" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.3">
       <c r="A88" s="37">
         <v>72</v>
       </c>
@@ -23912,7 +23350,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="4" customFormat="1" ht="61.5" customHeight="1">
+    <row r="89" spans="1:14" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="37">
         <v>73</v>
       </c>
@@ -23950,7 +23388,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="4" customFormat="1" ht="380.25" customHeight="1">
+    <row r="90" spans="1:14" s="4" customFormat="1" ht="380.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="37">
         <v>74</v>
       </c>
@@ -23988,7 +23426,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="4" customFormat="1" ht="246" customHeight="1">
+    <row r="91" spans="1:14" s="4" customFormat="1" ht="246" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="37">
         <v>75</v>
       </c>
@@ -24026,7 +23464,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="4" customFormat="1" ht="154.5" customHeight="1">
+    <row r="92" spans="1:14" s="4" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="37">
         <v>76</v>
       </c>
@@ -24064,7 +23502,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="4" customFormat="1" ht="78.75" customHeight="1">
+    <row r="93" spans="1:14" s="4" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="37">
         <v>77</v>
       </c>
@@ -24102,7 +23540,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="4" customFormat="1" ht="93.75" customHeight="1">
+    <row r="94" spans="1:14" s="4" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="37">
         <v>78</v>
       </c>
@@ -24136,7 +23574,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="4" customFormat="1" ht="48.75" customHeight="1">
+    <row r="95" spans="1:14" s="4" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="37">
         <v>79</v>
       </c>
@@ -24174,7 +23612,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="4" customFormat="1" ht="318" customHeight="1">
+    <row r="96" spans="1:14" s="4" customFormat="1" ht="318" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="37">
         <v>80</v>
       </c>
@@ -24212,7 +23650,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="4" customFormat="1" ht="122.25" customHeight="1">
+    <row r="97" spans="1:15" s="4" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="37"/>
       <c r="B97" s="34" t="s">
         <v>2475</v>
@@ -24246,7 +23684,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="4" customFormat="1" ht="60">
+    <row r="98" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A98" s="37">
         <v>81</v>
       </c>
@@ -24284,7 +23722,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="4" customFormat="1" ht="211.5" customHeight="1">
+    <row r="99" spans="1:15" s="4" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="37">
         <v>82</v>
       </c>
@@ -24320,7 +23758,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1">
+    <row r="100" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="37"/>
       <c r="B100" s="34" t="s">
         <v>2476</v>
@@ -24352,7 +23790,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="4" customFormat="1" ht="111" customHeight="1">
+    <row r="101" spans="1:15" s="4" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="37">
         <v>83</v>
       </c>
@@ -24388,7 +23826,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="4" customFormat="1" ht="108" customHeight="1">
+    <row r="102" spans="1:15" s="4" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="37"/>
       <c r="B102" s="34" t="s">
         <v>2477</v>
@@ -24424,7 +23862,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="103" spans="1:15" s="4" customFormat="1" ht="241.5" customHeight="1">
+    <row r="103" spans="1:15" s="4" customFormat="1" ht="241.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="37">
         <v>84</v>
       </c>
@@ -24464,7 +23902,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="4" customFormat="1" ht="150.75" customHeight="1">
+    <row r="104" spans="1:15" s="4" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="37">
         <v>85</v>
       </c>
@@ -24502,7 +23940,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="4" customFormat="1" ht="166.5" customHeight="1">
+    <row r="105" spans="1:15" s="4" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="37">
         <v>86</v>
       </c>
@@ -24536,7 +23974,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="4" customFormat="1" ht="122.25" customHeight="1">
+    <row r="106" spans="1:15" s="4" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="37"/>
       <c r="B106" s="34" t="s">
         <v>2478</v>
@@ -24572,7 +24010,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="107" spans="1:15" s="4" customFormat="1" ht="153.75" customHeight="1">
+    <row r="107" spans="1:15" s="4" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="37">
         <v>87</v>
       </c>
@@ -24610,7 +24048,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="108" spans="1:15" s="4" customFormat="1" ht="150.75" customHeight="1">
+    <row r="108" spans="1:15" s="4" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="37">
         <v>88</v>
       </c>
@@ -24651,7 +24089,7 @@
       </c>
       <c r="O108" s="8"/>
     </row>
-    <row r="109" spans="1:15" s="4" customFormat="1" ht="151.5" customHeight="1">
+    <row r="109" spans="1:15" s="4" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="37">
         <v>89</v>
       </c>
@@ -24689,7 +24127,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="110" spans="1:15" s="4" customFormat="1" ht="149.25" customHeight="1">
+    <row r="110" spans="1:15" s="4" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="37">
         <v>90</v>
       </c>
@@ -24727,7 +24165,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="4" customFormat="1" ht="106.5" customHeight="1">
+    <row r="111" spans="1:15" s="4" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="37"/>
       <c r="B111" s="34" t="s">
         <v>2479</v>
@@ -24763,7 +24201,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="112" spans="1:15" s="4" customFormat="1" ht="30">
+    <row r="112" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A112" s="37">
         <v>91</v>
       </c>
@@ -24799,7 +24237,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="113" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="113" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A113" s="37">
         <v>92</v>
       </c>
@@ -24837,7 +24275,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="114" spans="1:14" s="4" customFormat="1" ht="106.5" customHeight="1">
+    <row r="114" spans="1:14" s="4" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="37">
         <v>93</v>
       </c>
@@ -24875,7 +24313,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="4" customFormat="1" ht="122.25" customHeight="1">
+    <row r="115" spans="1:14" s="4" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="37"/>
       <c r="B115" s="34" t="s">
         <v>2480</v>
@@ -24899,7 +24337,7 @@
       <c r="M115" s="36"/>
       <c r="N115" s="32"/>
     </row>
-    <row r="116" spans="1:14" s="4" customFormat="1" ht="152.25" customHeight="1">
+    <row r="116" spans="1:14" s="4" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="37">
         <v>94</v>
       </c>
@@ -24937,14 +24375,14 @@
         <v>541</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="4" customFormat="1" ht="409.5" customHeight="1">
-      <c r="A117" s="74">
+    <row r="117" spans="1:14" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="71">
         <v>95</v>
       </c>
-      <c r="B117" s="69" t="s">
+      <c r="B117" s="70" t="s">
         <v>537</v>
       </c>
-      <c r="C117" s="67" t="s">
+      <c r="C117" s="68" t="s">
         <v>2953</v>
       </c>
       <c r="D117" s="32"/>
@@ -24952,46 +24390,46 @@
         <v>2954</v>
       </c>
       <c r="F117" s="32"/>
-      <c r="G117" s="67" t="s">
+      <c r="G117" s="68" t="s">
         <v>2300</v>
       </c>
-      <c r="H117" s="72" t="s">
+      <c r="H117" s="73" t="s">
         <v>543</v>
       </c>
-      <c r="I117" s="67" t="s">
+      <c r="I117" s="68" t="s">
         <v>8</v>
       </c>
       <c r="J117" s="32" t="s">
         <v>2995</v>
       </c>
       <c r="K117" s="32"/>
-      <c r="L117" s="67" t="s">
+      <c r="L117" s="68" t="s">
         <v>544</v>
       </c>
-      <c r="M117" s="75" t="s">
+      <c r="M117" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="N117" s="67" t="s">
+      <c r="N117" s="68" t="s">
         <v>2411</v>
       </c>
     </row>
-    <row r="118" spans="1:14" s="4" customFormat="1" ht="388.5" customHeight="1">
-      <c r="A118" s="74"/>
-      <c r="B118" s="69"/>
-      <c r="C118" s="67"/>
+    <row r="118" spans="1:14" s="4" customFormat="1" ht="388.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="71"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="68"/>
       <c r="D118" s="32"/>
       <c r="E118" s="32"/>
       <c r="F118" s="32"/>
-      <c r="G118" s="68"/>
-      <c r="H118" s="72"/>
-      <c r="I118" s="67"/>
+      <c r="G118" s="69"/>
+      <c r="H118" s="73"/>
+      <c r="I118" s="68"/>
       <c r="J118" s="32"/>
       <c r="K118" s="32"/>
-      <c r="L118" s="67"/>
-      <c r="M118" s="75"/>
-      <c r="N118" s="67"/>
-    </row>
-    <row r="119" spans="1:14" s="4" customFormat="1" ht="45">
+      <c r="L118" s="68"/>
+      <c r="M118" s="72"/>
+      <c r="N118" s="68"/>
+    </row>
+    <row r="119" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A119" s="37">
         <v>96</v>
       </c>
@@ -25027,7 +24465,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="120" spans="1:14" s="4" customFormat="1" ht="109.5" customHeight="1">
+    <row r="120" spans="1:14" s="4" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="37"/>
       <c r="B120" s="34" t="s">
         <v>2481</v>
@@ -25061,7 +24499,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="121" spans="1:14" s="4" customFormat="1" ht="94.5" customHeight="1">
+    <row r="121" spans="1:14" s="4" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="37">
         <v>97</v>
       </c>
@@ -25099,7 +24537,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="122" spans="1:14" s="4" customFormat="1" ht="165.75" customHeight="1">
+    <row r="122" spans="1:14" s="4" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="37">
         <v>98</v>
       </c>
@@ -25135,7 +24573,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="123" spans="1:14" s="4" customFormat="1" ht="166.5" customHeight="1">
+    <row r="123" spans="1:14" s="4" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="37">
         <v>99</v>
       </c>
@@ -25173,7 +24611,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="4" customFormat="1" ht="120.75" customHeight="1">
+    <row r="124" spans="1:14" s="4" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="37">
         <v>100</v>
       </c>
@@ -25211,7 +24649,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="125" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="125" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A125" s="37">
         <v>101</v>
       </c>
@@ -25247,7 +24685,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="126" spans="1:14" s="4" customFormat="1" ht="81.75" customHeight="1">
+    <row r="126" spans="1:14" s="4" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="37"/>
       <c r="B126" s="34" t="s">
         <v>2482</v>
@@ -25281,7 +24719,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="127" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="127" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A127" s="37">
         <v>102</v>
       </c>
@@ -25317,7 +24755,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="4" customFormat="1" ht="92.25" customHeight="1">
+    <row r="128" spans="1:14" s="4" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="37">
         <v>103</v>
       </c>
@@ -25355,7 +24793,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="4" customFormat="1" ht="198.75" customHeight="1">
+    <row r="129" spans="1:14" s="4" customFormat="1" ht="198.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="37">
         <v>104</v>
       </c>
@@ -25393,7 +24831,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="130" spans="1:14" s="4" customFormat="1" ht="93.75" customHeight="1">
+    <row r="130" spans="1:14" s="4" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="37">
         <v>105</v>
       </c>
@@ -25429,7 +24867,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="131" spans="1:14" s="4" customFormat="1" ht="286.5" customHeight="1">
+    <row r="131" spans="1:14" s="4" customFormat="1" ht="286.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="37">
         <v>106</v>
       </c>
@@ -25467,7 +24905,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="132" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="132" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A132" s="37">
         <v>107</v>
       </c>
@@ -25505,7 +24943,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="133" spans="1:14" s="4" customFormat="1" ht="105.75" customHeight="1">
+    <row r="133" spans="1:14" s="4" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="37">
         <v>108</v>
       </c>
@@ -25543,7 +24981,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="4" customFormat="1" ht="90">
+    <row r="134" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.3">
       <c r="A134" s="37">
         <v>109</v>
       </c>
@@ -25581,7 +25019,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="135" spans="1:14" s="4" customFormat="1" ht="75">
+    <row r="135" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A135" s="37"/>
       <c r="B135" s="34" t="s">
         <v>2483</v>
@@ -25615,7 +25053,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="136" spans="1:14" s="4" customFormat="1" ht="60.75" customHeight="1">
+    <row r="136" spans="1:14" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="37">
         <v>110</v>
       </c>
@@ -25653,7 +25091,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="137" spans="1:14" s="4" customFormat="1" ht="137.25" customHeight="1">
+    <row r="137" spans="1:14" s="4" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="37">
         <v>111</v>
       </c>
@@ -25691,7 +25129,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="138" spans="1:14" s="4" customFormat="1" ht="393" customHeight="1">
+    <row r="138" spans="1:14" s="4" customFormat="1" ht="393" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="37">
         <v>112</v>
       </c>
@@ -25729,7 +25167,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="139" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="139" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A139" s="37">
         <v>113</v>
       </c>
@@ -25765,7 +25203,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="140" spans="1:14" s="4" customFormat="1" ht="144" customHeight="1">
+    <row r="140" spans="1:14" s="4" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="24">
         <v>114</v>
       </c>
@@ -25801,7 +25239,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="141" spans="1:14" s="4" customFormat="1" ht="136.5" customHeight="1">
+    <row r="141" spans="1:14" s="4" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="37">
         <v>115</v>
       </c>
@@ -25841,7 +25279,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="142" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="142" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A142" s="37">
         <v>116</v>
       </c>
@@ -25877,7 +25315,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="143" spans="1:14" s="4" customFormat="1" ht="96" customHeight="1">
+    <row r="143" spans="1:14" s="4" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="37">
         <v>117</v>
       </c>
@@ -25913,7 +25351,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="144" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="144" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A144" s="37">
         <v>118</v>
       </c>
@@ -25949,7 +25387,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="145" spans="1:15" s="4" customFormat="1" ht="45">
+    <row r="145" spans="1:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A145" s="37">
         <v>119</v>
       </c>
@@ -25985,7 +25423,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="146" spans="1:15" s="4" customFormat="1" ht="170.25" customHeight="1">
+    <row r="146" spans="1:15" s="4" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="37">
         <v>120</v>
       </c>
@@ -26024,7 +25462,7 @@
       </c>
       <c r="O146" s="8"/>
     </row>
-    <row r="147" spans="1:15" s="4" customFormat="1" ht="165.75" customHeight="1">
+    <row r="147" spans="1:15" s="4" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="37">
         <v>121</v>
       </c>
@@ -26063,7 +25501,7 @@
       </c>
       <c r="O147" s="8"/>
     </row>
-    <row r="148" spans="1:15" s="4" customFormat="1" ht="45">
+    <row r="148" spans="1:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A148" s="37">
         <v>122</v>
       </c>
@@ -26099,7 +25537,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="149" spans="1:15" s="4" customFormat="1" ht="122.25" customHeight="1">
+    <row r="149" spans="1:15" s="4" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="37">
         <v>123</v>
       </c>
@@ -26137,7 +25575,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="150" spans="1:15" s="4" customFormat="1" ht="32.25" customHeight="1">
+    <row r="150" spans="1:15" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="37"/>
       <c r="B150" s="34" t="s">
         <v>2484</v>
@@ -26159,7 +25597,7 @@
       <c r="M150" s="36"/>
       <c r="N150" s="32"/>
     </row>
-    <row r="151" spans="1:15" s="4" customFormat="1" ht="140.25" customHeight="1">
+    <row r="151" spans="1:15" s="4" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="37">
         <v>124</v>
       </c>
@@ -26197,7 +25635,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="152" spans="1:15" s="4" customFormat="1" ht="45">
+    <row r="152" spans="1:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A152" s="37">
         <v>125</v>
       </c>
@@ -26233,7 +25671,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="153" spans="1:15" s="4" customFormat="1" ht="257.25" customHeight="1">
+    <row r="153" spans="1:15" s="4" customFormat="1" ht="257.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="37">
         <v>126</v>
       </c>
@@ -26271,14 +25709,14 @@
         <v>720</v>
       </c>
     </row>
-    <row r="154" spans="1:15" s="4" customFormat="1" ht="409.5" customHeight="1">
-      <c r="A154" s="70">
+    <row r="154" spans="1:15" s="4" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="74">
         <v>127</v>
       </c>
-      <c r="B154" s="69" t="s">
+      <c r="B154" s="70" t="s">
         <v>717</v>
       </c>
-      <c r="C154" s="67" t="s">
+      <c r="C154" s="68" t="s">
         <v>2536</v>
       </c>
       <c r="D154" s="32"/>
@@ -26288,46 +25726,46 @@
       <c r="F154" s="32" t="s">
         <v>2534</v>
       </c>
-      <c r="G154" s="67" t="s">
+      <c r="G154" s="68" t="s">
         <v>3297</v>
       </c>
-      <c r="H154" s="72" t="s">
+      <c r="H154" s="73" t="s">
         <v>2414</v>
       </c>
-      <c r="I154" s="67" t="s">
+      <c r="I154" s="68" t="s">
         <v>111</v>
       </c>
       <c r="J154" s="32" t="s">
         <v>2537</v>
       </c>
       <c r="K154" s="32"/>
-      <c r="L154" s="67" t="s">
+      <c r="L154" s="68" t="s">
         <v>722</v>
       </c>
-      <c r="M154" s="71" t="s">
+      <c r="M154" s="75" t="s">
         <v>2343</v>
       </c>
-      <c r="N154" s="67" t="s">
+      <c r="N154" s="68" t="s">
         <v>3299</v>
       </c>
     </row>
-    <row r="155" spans="1:15" s="4" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A155" s="70"/>
-      <c r="B155" s="69"/>
-      <c r="C155" s="67"/>
+    <row r="155" spans="1:15" s="4" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="74"/>
+      <c r="B155" s="70"/>
+      <c r="C155" s="68"/>
       <c r="D155" s="32"/>
       <c r="E155" s="31"/>
       <c r="F155" s="32"/>
-      <c r="G155" s="68"/>
-      <c r="H155" s="72"/>
-      <c r="I155" s="67"/>
+      <c r="G155" s="69"/>
+      <c r="H155" s="73"/>
+      <c r="I155" s="68"/>
       <c r="J155" s="32"/>
       <c r="K155" s="32"/>
-      <c r="L155" s="67"/>
-      <c r="M155" s="71"/>
-      <c r="N155" s="67"/>
-    </row>
-    <row r="156" spans="1:15" s="4" customFormat="1" ht="189.75" customHeight="1">
+      <c r="L155" s="68"/>
+      <c r="M155" s="75"/>
+      <c r="N155" s="68"/>
+    </row>
+    <row r="156" spans="1:15" s="4" customFormat="1" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="37"/>
       <c r="B156" s="34"/>
       <c r="C156" s="5">
@@ -26353,7 +25791,7 @@
       <c r="M156" s="36"/>
       <c r="N156" s="32"/>
     </row>
-    <row r="157" spans="1:15" s="4" customFormat="1" ht="155.25" customHeight="1">
+    <row r="157" spans="1:15" s="4" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="37">
         <v>128</v>
       </c>
@@ -26391,7 +25829,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="158" spans="1:15" s="4" customFormat="1" ht="45">
+    <row r="158" spans="1:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A158" s="37">
         <v>129</v>
       </c>
@@ -26427,7 +25865,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="159" spans="1:15" s="4" customFormat="1" ht="120.75" customHeight="1">
+    <row r="159" spans="1:15" s="4" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="37">
         <v>130</v>
       </c>
@@ -26465,7 +25903,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="160" spans="1:15" s="4" customFormat="1" ht="93.75" customHeight="1">
+    <row r="160" spans="1:15" s="4" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="37">
         <v>131</v>
       </c>
@@ -26501,7 +25939,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="161" spans="1:15" s="4" customFormat="1" ht="215.25" customHeight="1">
+    <row r="161" spans="1:15" s="4" customFormat="1" ht="215.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="37">
         <v>132</v>
       </c>
@@ -26541,7 +25979,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="162" spans="1:15" s="4" customFormat="1" ht="164.25" customHeight="1">
+    <row r="162" spans="1:15" s="4" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="37">
         <v>133</v>
       </c>
@@ -26579,7 +26017,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="163" spans="1:15" s="4" customFormat="1" ht="243.75" customHeight="1">
+    <row r="163" spans="1:15" s="4" customFormat="1" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="37">
         <v>134</v>
       </c>
@@ -26617,7 +26055,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="164" spans="1:15" s="4" customFormat="1" ht="153.75" customHeight="1">
+    <row r="164" spans="1:15" s="4" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="37">
         <v>135</v>
       </c>
@@ -26655,7 +26093,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="165" spans="1:15" s="4" customFormat="1" ht="92.25" customHeight="1">
+    <row r="165" spans="1:15" s="4" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="37">
         <v>136</v>
       </c>
@@ -26691,7 +26129,7 @@
       </c>
       <c r="N165" s="32"/>
     </row>
-    <row r="166" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1">
+    <row r="166" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="37"/>
       <c r="B166" s="34" t="s">
         <v>2485</v>
@@ -26727,7 +26165,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="167" spans="1:15" s="4" customFormat="1" ht="106.5" customHeight="1">
+    <row r="167" spans="1:15" s="4" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="37"/>
       <c r="B167" s="34" t="s">
         <v>2486</v>
@@ -26761,7 +26199,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="168" spans="1:15" s="4" customFormat="1" ht="150.75" customHeight="1">
+    <row r="168" spans="1:15" s="4" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="37">
         <v>137</v>
       </c>
@@ -26802,7 +26240,7 @@
       </c>
       <c r="O168" s="8"/>
     </row>
-    <row r="169" spans="1:15" s="4" customFormat="1" ht="45">
+    <row r="169" spans="1:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A169" s="37">
         <v>138</v>
       </c>
@@ -26838,7 +26276,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="170" spans="1:15" s="4" customFormat="1" ht="96.75" customHeight="1">
+    <row r="170" spans="1:15" s="4" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="37">
         <v>139</v>
       </c>
@@ -26876,7 +26314,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="171" spans="1:15" s="4" customFormat="1" ht="45">
+    <row r="171" spans="1:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A171" s="37">
         <v>140</v>
       </c>
@@ -26912,7 +26350,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="172" spans="1:15" s="4" customFormat="1" ht="93.75" customHeight="1">
+    <row r="172" spans="1:15" s="4" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="37">
         <v>141</v>
       </c>
@@ -26950,7 +26388,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="173" spans="1:15" s="4" customFormat="1" ht="45">
+    <row r="173" spans="1:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A173" s="37">
         <v>142</v>
       </c>
@@ -26986,7 +26424,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="174" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1">
+    <row r="174" spans="1:15" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="37">
         <v>143</v>
       </c>
@@ -27022,7 +26460,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="175" spans="1:15" s="4" customFormat="1" ht="61.5" customHeight="1">
+    <row r="175" spans="1:15" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="37">
         <v>144</v>
       </c>
@@ -27060,7 +26498,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="176" spans="1:15" s="4" customFormat="1" ht="45">
+    <row r="176" spans="1:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A176" s="37">
         <v>145</v>
       </c>
@@ -27096,7 +26534,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="177" spans="1:14" s="4" customFormat="1" ht="154.5" customHeight="1">
+    <row r="177" spans="1:14" s="4" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="37">
         <v>146</v>
       </c>
@@ -27132,7 +26570,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="178" spans="1:14" s="4" customFormat="1" ht="147.75">
+    <row r="178" spans="1:14" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="A178" s="37">
         <v>147</v>
       </c>
@@ -27170,7 +26608,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="179" spans="1:14" s="4" customFormat="1" ht="89.25">
+    <row r="179" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.3">
       <c r="A179" s="37">
         <v>148</v>
       </c>
@@ -27206,7 +26644,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:14" s="4" customFormat="1" ht="78" customHeight="1">
+    <row r="180" spans="1:14" s="4" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="37">
         <v>149</v>
       </c>
@@ -27244,7 +26682,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="181" spans="1:14" s="4" customFormat="1" ht="152.25" customHeight="1">
+    <row r="181" spans="1:14" s="4" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="37">
         <v>155</v>
       </c>
@@ -27282,7 +26720,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="182" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="182" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A182" s="37">
         <v>151</v>
       </c>
@@ -27316,7 +26754,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="183" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="183" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A183" s="37">
         <v>152</v>
       </c>
@@ -27352,7 +26790,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="184" spans="1:14" s="4" customFormat="1" ht="30">
+    <row r="184" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A184" s="37">
         <v>153</v>
       </c>
@@ -27388,7 +26826,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="185" spans="1:14" s="4" customFormat="1" ht="93" customHeight="1">
+    <row r="185" spans="1:14" s="4" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="37">
         <v>154</v>
       </c>
@@ -27426,7 +26864,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="186" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="186" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A186" s="37">
         <v>155</v>
       </c>
@@ -27462,7 +26900,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="187" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="187" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A187" s="37">
         <v>156</v>
       </c>
@@ -27498,7 +26936,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="188" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="188" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A188" s="37">
         <v>157</v>
       </c>
@@ -27534,7 +26972,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="189" spans="1:14" s="4" customFormat="1" ht="96.75" customHeight="1">
+    <row r="189" spans="1:14" s="4" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="37">
         <v>158</v>
       </c>
@@ -27570,7 +27008,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="190" spans="1:14" s="4" customFormat="1" ht="183.75" customHeight="1">
+    <row r="190" spans="1:14" s="4" customFormat="1" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="37">
         <v>159</v>
       </c>
@@ -27608,7 +27046,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="191" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="191" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A191" s="37">
         <v>160</v>
       </c>
@@ -27644,7 +27082,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="192" spans="1:14" s="4" customFormat="1" ht="94.5" customHeight="1">
+    <row r="192" spans="1:14" s="4" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="37">
         <v>161</v>
       </c>
@@ -27678,7 +27116,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="193" spans="1:14" s="4" customFormat="1" ht="141.75" customHeight="1">
+    <row r="193" spans="1:14" s="4" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="37">
         <v>162</v>
       </c>
@@ -27716,7 +27154,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="194" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="194" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A194" s="37">
         <v>163</v>
       </c>
@@ -27752,7 +27190,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="195" spans="1:14" s="4" customFormat="1" ht="105">
+    <row r="195" spans="1:14" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.3">
       <c r="A195" s="37">
         <v>164</v>
       </c>
@@ -27790,7 +27228,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="196" spans="1:14" s="4" customFormat="1" ht="107.25" customHeight="1">
+    <row r="196" spans="1:14" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="37"/>
       <c r="B196" s="34" t="s">
         <v>2487</v>
@@ -27824,7 +27262,7 @@
         <v>3122</v>
       </c>
     </row>
-    <row r="197" spans="1:14" s="4" customFormat="1" ht="228.75" customHeight="1">
+    <row r="197" spans="1:14" s="4" customFormat="1" ht="228.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="37">
         <v>165</v>
       </c>
@@ -27862,7 +27300,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="198" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="198" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A198" s="37">
         <v>166</v>
       </c>
@@ -27898,7 +27336,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="199" spans="1:14" s="4" customFormat="1" ht="159.75" customHeight="1">
+    <row r="199" spans="1:14" s="4" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="37">
         <v>167</v>
       </c>
@@ -27936,7 +27374,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="200" spans="1:14" s="4" customFormat="1">
+    <row r="200" spans="1:14" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A200" s="37"/>
       <c r="B200" s="34" t="s">
         <v>2488</v>
@@ -27954,7 +27392,7 @@
       <c r="M200" s="35"/>
       <c r="N200" s="32"/>
     </row>
-    <row r="201" spans="1:14" s="4" customFormat="1">
+    <row r="201" spans="1:14" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A201" s="37"/>
       <c r="B201" s="34" t="s">
         <v>2489</v>
@@ -27972,7 +27410,7 @@
       <c r="M201" s="35"/>
       <c r="N201" s="32"/>
     </row>
-    <row r="202" spans="1:14" s="4" customFormat="1" ht="137.25" customHeight="1">
+    <row r="202" spans="1:14" s="4" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="37">
         <v>168</v>
       </c>
@@ -28010,7 +27448,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="203" spans="1:14" s="4" customFormat="1" ht="80.25" customHeight="1">
+    <row r="203" spans="1:14" s="4" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="37">
         <v>169</v>
       </c>
@@ -28048,7 +27486,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="204" spans="1:14" s="4" customFormat="1" ht="107.25" customHeight="1">
+    <row r="204" spans="1:14" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="37"/>
       <c r="B204" s="34" t="s">
         <v>2490</v>
@@ -28082,7 +27520,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="205" spans="1:14" s="4" customFormat="1" ht="258.75" customHeight="1">
+    <row r="205" spans="1:14" s="4" customFormat="1" ht="258.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="37">
         <v>170</v>
       </c>
@@ -28120,7 +27558,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="206" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="206" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A206" s="37">
         <v>171</v>
       </c>
@@ -28156,7 +27594,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="207" spans="1:14" s="4" customFormat="1" ht="249.75" customHeight="1">
+    <row r="207" spans="1:14" s="4" customFormat="1" ht="249.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="37">
         <v>172</v>
       </c>
@@ -28194,7 +27632,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="208" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1">
+    <row r="208" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="37">
         <v>173</v>
       </c>
@@ -28230,7 +27668,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="209" spans="1:15" s="4" customFormat="1" ht="138.75" customHeight="1">
+    <row r="209" spans="1:15" s="4" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="37">
         <v>174</v>
       </c>
@@ -28268,7 +27706,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="210" spans="1:15" s="4" customFormat="1" ht="166.5" customHeight="1">
+    <row r="210" spans="1:15" s="4" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="37">
         <v>175</v>
       </c>
@@ -28307,7 +27745,7 @@
       </c>
       <c r="O210" s="10"/>
     </row>
-    <row r="211" spans="1:15" s="4" customFormat="1" ht="60">
+    <row r="211" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A211" s="37">
         <v>176</v>
       </c>
@@ -28343,7 +27781,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="212" spans="1:15" s="4" customFormat="1" ht="123" customHeight="1">
+    <row r="212" spans="1:15" s="4" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="37">
         <v>177</v>
       </c>
@@ -28379,7 +27817,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="213" spans="1:15" s="4" customFormat="1" ht="60">
+    <row r="213" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A213" s="37">
         <v>178</v>
       </c>
@@ -28415,7 +27853,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="214" spans="1:15" s="4" customFormat="1" ht="45">
+    <row r="214" spans="1:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A214" s="37">
         <v>179</v>
       </c>
@@ -28451,7 +27889,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="215" spans="1:15" s="4" customFormat="1" ht="45">
+    <row r="215" spans="1:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A215" s="37">
         <v>180</v>
       </c>
@@ -28487,7 +27925,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="216" spans="1:15" s="4" customFormat="1" ht="134.25">
+    <row r="216" spans="1:15" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.3">
       <c r="A216" s="37">
         <v>181</v>
       </c>
@@ -28523,7 +27961,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="217" spans="1:15" s="4" customFormat="1" ht="213" customHeight="1">
+    <row r="217" spans="1:15" s="4" customFormat="1" ht="213" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="37">
         <v>182</v>
       </c>
@@ -28559,7 +27997,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="218" spans="1:15" s="4" customFormat="1" ht="115.5" customHeight="1">
+    <row r="218" spans="1:15" s="4" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="37">
         <v>183</v>
       </c>
@@ -28599,7 +28037,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="219" spans="1:15" s="4" customFormat="1" ht="126.75" customHeight="1">
+    <row r="219" spans="1:15" s="4" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="37">
         <v>184</v>
       </c>
@@ -28635,7 +28073,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="220" spans="1:15" s="4" customFormat="1" ht="138.75" customHeight="1">
+    <row r="220" spans="1:15" s="4" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="37"/>
       <c r="B220" s="34" t="s">
         <v>2491</v>
@@ -28671,7 +28109,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="221" spans="1:15" s="4" customFormat="1" ht="94.5" customHeight="1">
+    <row r="221" spans="1:15" s="4" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="37">
         <v>185</v>
       </c>
@@ -28707,7 +28145,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="222" spans="1:15" s="4" customFormat="1" ht="120">
+    <row r="222" spans="1:15" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.3">
       <c r="A222" s="37">
         <v>186</v>
       </c>
@@ -28743,7 +28181,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="223" spans="1:15" s="4" customFormat="1" ht="60">
+    <row r="223" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A223" s="37">
         <v>187</v>
       </c>
@@ -28779,7 +28217,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="224" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1">
+    <row r="224" spans="1:15" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="37">
         <v>188</v>
       </c>
@@ -28815,7 +28253,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="225" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1">
+    <row r="225" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="37"/>
       <c r="B225" s="34" t="s">
         <v>2492</v>
@@ -28833,7 +28271,7 @@
       <c r="M225" s="36"/>
       <c r="N225" s="32"/>
     </row>
-    <row r="226" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="226" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A226" s="37">
         <v>189</v>
       </c>
@@ -28869,7 +28307,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="227" spans="1:14" s="4" customFormat="1" ht="108" customHeight="1">
+    <row r="227" spans="1:14" s="4" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="37"/>
       <c r="B227" s="34" t="s">
         <v>2493</v>
@@ -28903,7 +28341,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="228" spans="1:14" s="4" customFormat="1" ht="125.25" customHeight="1">
+    <row r="228" spans="1:14" s="4" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="37">
         <v>190</v>
       </c>
@@ -28937,7 +28375,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="229" spans="1:14" s="4" customFormat="1" ht="138" customHeight="1">
+    <row r="229" spans="1:14" s="4" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="37">
         <v>191</v>
       </c>
@@ -28975,7 +28413,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="230" spans="1:14" s="4" customFormat="1" ht="140.25" customHeight="1">
+    <row r="230" spans="1:14" s="4" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="37">
         <v>192</v>
       </c>
@@ -29013,7 +28451,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="231" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="231" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A231" s="37">
         <v>193</v>
       </c>
@@ -29049,7 +28487,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="232" spans="1:14" s="4" customFormat="1" ht="61.5" customHeight="1">
+    <row r="232" spans="1:14" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="37">
         <v>194</v>
       </c>
@@ -29085,7 +28523,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="233" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="233" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A233" s="37">
         <v>195</v>
       </c>
@@ -29123,7 +28561,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="234" spans="1:14" s="4" customFormat="1" ht="108.75" customHeight="1">
+    <row r="234" spans="1:14" s="4" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="37">
         <v>196</v>
       </c>
@@ -29161,7 +28599,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="235" spans="1:14" s="4" customFormat="1" ht="228.75" customHeight="1">
+    <row r="235" spans="1:14" s="4" customFormat="1" ht="228.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="37">
         <v>197</v>
       </c>
@@ -29197,7 +28635,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="236" spans="1:14" s="4" customFormat="1" ht="111.75" customHeight="1">
+    <row r="236" spans="1:14" s="4" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="37">
         <v>198</v>
       </c>
@@ -29233,7 +28671,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="237" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="237" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A237" s="37">
         <v>199</v>
       </c>
@@ -29271,7 +28709,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="238" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="238" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A238" s="37">
         <v>200</v>
       </c>
@@ -29307,7 +28745,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="239" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="239" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A239" s="37">
         <v>201</v>
       </c>
@@ -29343,7 +28781,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="240" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="240" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A240" s="37">
         <v>202</v>
       </c>
@@ -29381,7 +28819,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="241" spans="1:14" s="4" customFormat="1" ht="122.25" customHeight="1">
+    <row r="241" spans="1:14" s="4" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="37"/>
       <c r="B241" s="34" t="s">
         <v>2494</v>
@@ -29415,7 +28853,7 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="242" spans="1:14" s="4" customFormat="1" ht="63" customHeight="1">
+    <row r="242" spans="1:14" s="4" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="37">
         <v>203</v>
       </c>
@@ -29451,7 +28889,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="243" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="243" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A243" s="37">
         <v>204</v>
       </c>
@@ -29489,7 +28927,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="244" spans="1:14" s="4" customFormat="1" ht="363.75" customHeight="1">
+    <row r="244" spans="1:14" s="4" customFormat="1" ht="363.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="37">
         <v>205</v>
       </c>
@@ -29527,7 +28965,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="245" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="245" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A245" s="37">
         <v>206</v>
       </c>
@@ -29561,7 +28999,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="246" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="246" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A246" s="37">
         <v>207</v>
       </c>
@@ -29595,7 +29033,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="247" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="247" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A247" s="37">
         <v>208</v>
       </c>
@@ -29629,7 +29067,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="248" spans="1:14" s="4" customFormat="1" ht="123.75" customHeight="1">
+    <row r="248" spans="1:14" s="4" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="37">
         <v>209</v>
       </c>
@@ -29663,7 +29101,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="249" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="249" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A249" s="37">
         <v>210</v>
       </c>
@@ -29697,7 +29135,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="250" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="250" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A250" s="37">
         <v>211</v>
       </c>
@@ -29731,7 +29169,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="251" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="251" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A251" s="37">
         <v>212</v>
       </c>
@@ -29765,7 +29203,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="252" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="252" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A252" s="37">
         <v>213</v>
       </c>
@@ -29799,7 +29237,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="253" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="253" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A253" s="37">
         <v>214</v>
       </c>
@@ -29833,7 +29271,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="254" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="254" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A254" s="37">
         <v>215</v>
       </c>
@@ -29867,7 +29305,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="255" spans="1:14" s="4" customFormat="1" ht="49.5" customHeight="1">
+    <row r="255" spans="1:14" s="4" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="37">
         <v>216</v>
       </c>
@@ -29901,7 +29339,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="256" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="256" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A256" s="37">
         <v>217</v>
       </c>
@@ -29935,7 +29373,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="257" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="257" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A257" s="37">
         <v>218</v>
       </c>
@@ -29969,7 +29407,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="258" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="258" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A258" s="37">
         <v>219</v>
       </c>
@@ -30003,7 +29441,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="259" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="259" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A259" s="37">
         <v>220</v>
       </c>
@@ -30037,7 +29475,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="260" spans="1:14" s="4" customFormat="1" ht="109.5" customHeight="1">
+    <row r="260" spans="1:14" s="4" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="37">
         <v>221</v>
       </c>
@@ -30071,7 +29509,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="261" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="261" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A261" s="37">
         <v>222</v>
       </c>
@@ -30105,7 +29543,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="262" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="262" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A262" s="37">
         <v>223</v>
       </c>
@@ -30139,7 +29577,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="263" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="263" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A263" s="37">
         <v>224</v>
       </c>
@@ -30173,7 +29611,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="264" spans="1:14" s="4" customFormat="1" ht="137.25" customHeight="1">
+    <row r="264" spans="1:14" s="4" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="37"/>
       <c r="B264" s="34" t="s">
         <v>2495</v>
@@ -30207,7 +29645,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="265" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="265" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A265" s="37">
         <v>225</v>
       </c>
@@ -30241,7 +29679,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="266" spans="1:14" s="4" customFormat="1" ht="90">
+    <row r="266" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.3">
       <c r="A266" s="37">
         <v>226</v>
       </c>
@@ -30275,7 +29713,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="267" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="267" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A267" s="37">
         <v>227</v>
       </c>
@@ -30309,7 +29747,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="268" spans="1:14" s="4" customFormat="1" ht="111" customHeight="1">
+    <row r="268" spans="1:14" s="4" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="37">
         <v>228</v>
       </c>
@@ -30343,7 +29781,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="269" spans="1:14" s="4" customFormat="1" ht="109.5" customHeight="1">
+    <row r="269" spans="1:14" s="4" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="37"/>
       <c r="B269" s="34" t="s">
         <v>2496</v>
@@ -30377,7 +29815,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="270" spans="1:14" s="4" customFormat="1" ht="75">
+    <row r="270" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A270" s="37">
         <v>229</v>
       </c>
@@ -30411,7 +29849,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="271" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="271" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A271" s="37">
         <v>230</v>
       </c>
@@ -30445,7 +29883,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="272" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="272" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A272" s="37">
         <v>231</v>
       </c>
@@ -30479,7 +29917,7 @@
         <v>3355</v>
       </c>
     </row>
-    <row r="273" spans="1:14" s="4" customFormat="1" ht="49.5" customHeight="1">
+    <row r="273" spans="1:14" s="4" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="37">
         <v>232</v>
       </c>
@@ -30513,7 +29951,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="274" spans="1:14" s="4" customFormat="1" ht="93.75" customHeight="1">
+    <row r="274" spans="1:14" s="4" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="37">
         <v>233</v>
       </c>
@@ -30549,7 +29987,7 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="275" spans="1:14" s="4" customFormat="1" ht="107.25" customHeight="1">
+    <row r="275" spans="1:14" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="37"/>
       <c r="B275" s="34" t="s">
         <v>2497</v>
@@ -30583,7 +30021,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="276" spans="1:14" s="4" customFormat="1" ht="45.75" customHeight="1">
+    <row r="276" spans="1:14" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="37">
         <v>234</v>
       </c>
@@ -30619,7 +30057,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="277" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="277" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A277" s="37">
         <v>235</v>
       </c>
@@ -30653,7 +30091,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="278" spans="1:14" s="4" customFormat="1" ht="108.75" customHeight="1">
+    <row r="278" spans="1:14" s="4" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="37"/>
       <c r="B278" s="34" t="s">
         <v>2498</v>
@@ -30687,7 +30125,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="279" spans="1:14" s="4" customFormat="1" ht="181.5" customHeight="1">
+    <row r="279" spans="1:14" s="4" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="37">
         <v>236</v>
       </c>
@@ -30725,7 +30163,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="280" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="280" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A280" s="37">
         <v>237</v>
       </c>
@@ -30759,7 +30197,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="281" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="281" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A281" s="37">
         <v>238</v>
       </c>
@@ -30795,7 +30233,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="282" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="282" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A282" s="37">
         <v>239</v>
       </c>
@@ -30831,7 +30269,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="283" spans="1:14" s="4" customFormat="1" ht="112.5" customHeight="1">
+    <row r="283" spans="1:14" s="4" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="37"/>
       <c r="B283" s="34" t="s">
         <v>2499</v>
@@ -30865,7 +30303,7 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="284" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="284" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A284" s="37">
         <v>240</v>
       </c>
@@ -30899,7 +30337,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="285" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="285" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A285" s="37">
         <v>241</v>
       </c>
@@ -30933,7 +30371,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="286" spans="1:14" s="4" customFormat="1" ht="75">
+    <row r="286" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A286" s="37">
         <v>242</v>
       </c>
@@ -30969,7 +30407,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="287" spans="1:14" s="4" customFormat="1" ht="150">
+    <row r="287" spans="1:14" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="A287" s="37">
         <v>243</v>
       </c>
@@ -31005,7 +30443,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="288" spans="1:14" s="4" customFormat="1" ht="135" customHeight="1">
+    <row r="288" spans="1:14" s="4" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="37">
         <v>244</v>
       </c>
@@ -31041,7 +30479,7 @@
         <v>3467</v>
       </c>
     </row>
-    <row r="289" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="289" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A289" s="37">
         <v>245</v>
       </c>
@@ -31075,7 +30513,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="290" spans="1:14" s="4" customFormat="1" ht="135.75" customHeight="1">
+    <row r="290" spans="1:14" s="4" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="37">
         <v>246</v>
       </c>
@@ -31111,7 +30549,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="291" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="291" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A291" s="37">
         <v>247</v>
       </c>
@@ -31145,7 +30583,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="292" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="292" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A292" s="37">
         <v>248</v>
       </c>
@@ -31181,7 +30619,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="293" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="293" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A293" s="37">
         <v>249</v>
       </c>
@@ -31215,7 +30653,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="294" spans="1:14" s="4" customFormat="1" ht="122.25" customHeight="1">
+    <row r="294" spans="1:14" s="4" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="37">
         <v>250</v>
       </c>
@@ -31249,7 +30687,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="295" spans="1:14" s="4" customFormat="1" ht="90">
+    <row r="295" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.3">
       <c r="A295" s="37">
         <v>251</v>
       </c>
@@ -31283,7 +30721,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="296" spans="1:14" s="4" customFormat="1" ht="109.5" customHeight="1">
+    <row r="296" spans="1:14" s="4" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="37">
         <v>252</v>
       </c>
@@ -31317,7 +30755,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="297" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="297" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A297" s="37">
         <v>253</v>
       </c>
@@ -31351,7 +30789,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="298" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="298" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A298" s="37">
         <v>254</v>
       </c>
@@ -31387,7 +30825,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="299" spans="1:14" s="4" customFormat="1" ht="90">
+    <row r="299" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.3">
       <c r="A299" s="37">
         <v>255</v>
       </c>
@@ -31423,7 +30861,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="300" spans="1:14" s="4" customFormat="1" ht="123" customHeight="1">
+    <row r="300" spans="1:14" s="4" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="37">
         <v>256</v>
       </c>
@@ -31459,7 +30897,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="301" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="301" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A301" s="37">
         <v>257</v>
       </c>
@@ -31495,7 +30933,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="302" spans="1:14" s="4" customFormat="1" ht="64.5" customHeight="1">
+    <row r="302" spans="1:14" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="37">
         <v>258</v>
       </c>
@@ -31531,7 +30969,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="303" spans="1:14" s="4" customFormat="1" ht="107.25" customHeight="1">
+    <row r="303" spans="1:14" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="37">
         <v>259</v>
       </c>
@@ -31569,7 +31007,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="304" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="304" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A304" s="37">
         <v>260</v>
       </c>
@@ -31605,7 +31043,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="305" spans="1:14" s="4" customFormat="1" ht="63" customHeight="1">
+    <row r="305" spans="1:14" s="4" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="37">
         <v>261</v>
       </c>
@@ -31641,7 +31079,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="306" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="306" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A306" s="37">
         <v>262</v>
       </c>
@@ -31677,7 +31115,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="307" spans="1:14" s="4" customFormat="1" ht="138" customHeight="1">
+    <row r="307" spans="1:14" s="4" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="37">
         <v>263</v>
       </c>
@@ -31715,7 +31153,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="308" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="308" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A308" s="37">
         <v>264</v>
       </c>
@@ -31751,7 +31189,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="309" spans="1:14" s="4" customFormat="1" ht="136.5" customHeight="1">
+    <row r="309" spans="1:14" s="4" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="37">
         <v>265</v>
       </c>
@@ -31791,7 +31229,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="310" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="310" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A310" s="37">
         <v>266</v>
       </c>
@@ -31827,7 +31265,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="311" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="311" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A311" s="37">
         <v>267</v>
       </c>
@@ -31863,7 +31301,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="312" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="312" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A312" s="37">
         <v>268</v>
       </c>
@@ -31899,7 +31337,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="313" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="313" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A313" s="37">
         <v>269</v>
       </c>
@@ -31935,7 +31373,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="314" spans="1:14" s="4" customFormat="1" ht="106.5" customHeight="1">
+    <row r="314" spans="1:14" s="4" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="37">
         <v>270</v>
       </c>
@@ -31971,7 +31409,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="315" spans="1:14" s="4" customFormat="1" ht="91.5" customHeight="1">
+    <row r="315" spans="1:14" s="4" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="37">
         <v>271</v>
       </c>
@@ -32007,7 +31445,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="316" spans="1:14" s="4" customFormat="1" ht="120">
+    <row r="316" spans="1:14" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.3">
       <c r="A316" s="37">
         <v>272</v>
       </c>
@@ -32043,7 +31481,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="317" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="317" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A317" s="37">
         <v>273</v>
       </c>
@@ -32077,7 +31515,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="318" spans="1:14" s="4" customFormat="1" ht="210">
+    <row r="318" spans="1:14" s="4" customFormat="1" ht="210" x14ac:dyDescent="0.3">
       <c r="A318" s="37">
         <v>274</v>
       </c>
@@ -32115,7 +31553,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="319" spans="1:14" s="4" customFormat="1" ht="139.5" customHeight="1">
+    <row r="319" spans="1:14" s="4" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="37">
         <v>275</v>
       </c>
@@ -32153,7 +31591,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="320" spans="1:14" s="4" customFormat="1" ht="47.25" customHeight="1">
+    <row r="320" spans="1:14" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="37">
         <v>276</v>
       </c>
@@ -32189,7 +31627,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="321" spans="1:14" s="4" customFormat="1" ht="48" customHeight="1">
+    <row r="321" spans="1:14" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="37">
         <v>277</v>
       </c>
@@ -32225,7 +31663,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="322" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="322" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A322" s="37">
         <v>278</v>
       </c>
@@ -32261,7 +31699,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="323" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="323" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A323" s="37">
         <v>279</v>
       </c>
@@ -32297,7 +31735,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="324" spans="1:14" s="4" customFormat="1" ht="62.25" customHeight="1">
+    <row r="324" spans="1:14" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="37">
         <v>280</v>
       </c>
@@ -32333,7 +31771,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="325" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="325" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A325" s="37">
         <v>281</v>
       </c>
@@ -32369,7 +31807,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="326" spans="1:14" s="4" customFormat="1" ht="79.5" customHeight="1">
+    <row r="326" spans="1:14" s="4" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="37">
         <v>282</v>
       </c>
@@ -32405,7 +31843,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="327" spans="1:14" s="4" customFormat="1" ht="210">
+    <row r="327" spans="1:14" s="4" customFormat="1" ht="210" x14ac:dyDescent="0.3">
       <c r="A327" s="37">
         <v>283</v>
       </c>
@@ -32443,7 +31881,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="328" spans="1:14" s="4" customFormat="1" ht="109.5" customHeight="1">
+    <row r="328" spans="1:14" s="4" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="37">
         <v>284</v>
       </c>
@@ -32479,7 +31917,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="329" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="329" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A329" s="37">
         <v>285</v>
       </c>
@@ -32515,7 +31953,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="330" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="330" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A330" s="37">
         <v>286</v>
       </c>
@@ -32551,7 +31989,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="331" spans="1:14" s="4" customFormat="1" ht="75">
+    <row r="331" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A331" s="37">
         <v>287</v>
       </c>
@@ -32587,7 +32025,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="332" spans="1:14" s="4" customFormat="1" ht="92.25" customHeight="1">
+    <row r="332" spans="1:14" s="4" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="37">
         <v>288</v>
       </c>
@@ -32623,7 +32061,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="333" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="333" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A333" s="37">
         <v>289</v>
       </c>
@@ -32659,7 +32097,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="334" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="334" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A334" s="37">
         <v>290</v>
       </c>
@@ -32695,7 +32133,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="335" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="335" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A335" s="37">
         <v>291</v>
       </c>
@@ -32731,7 +32169,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="336" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="336" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A336" s="37">
         <v>292</v>
       </c>
@@ -32767,7 +32205,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="337" spans="1:14" s="4" customFormat="1" ht="135" customHeight="1">
+    <row r="337" spans="1:14" s="4" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="37">
         <v>293</v>
       </c>
@@ -32805,7 +32243,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="338" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="338" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A338" s="37">
         <v>294</v>
       </c>
@@ -32841,7 +32279,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="339" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="339" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A339" s="37">
         <v>295</v>
       </c>
@@ -32877,7 +32315,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="340" spans="1:14" s="4" customFormat="1" ht="105" customHeight="1">
+    <row r="340" spans="1:14" s="4" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="37">
         <v>296</v>
       </c>
@@ -32913,7 +32351,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="341" spans="1:14" s="4" customFormat="1" ht="197.25" customHeight="1">
+    <row r="341" spans="1:14" s="4" customFormat="1" ht="197.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="37">
         <v>297</v>
       </c>
@@ -32951,7 +32389,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="342" spans="1:14" s="4" customFormat="1" ht="210">
+    <row r="342" spans="1:14" s="4" customFormat="1" ht="210" x14ac:dyDescent="0.3">
       <c r="A342" s="37">
         <v>298</v>
       </c>
@@ -32989,7 +32427,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="343" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="343" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A343" s="37">
         <v>299</v>
       </c>
@@ -33025,7 +32463,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="344" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="344" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A344" s="37">
         <v>300</v>
       </c>
@@ -33061,7 +32499,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="345" spans="1:14" s="4" customFormat="1" ht="47.25" customHeight="1">
+    <row r="345" spans="1:14" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="37">
         <v>301</v>
       </c>
@@ -33097,7 +32535,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="346" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="346" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A346" s="37">
         <v>302</v>
       </c>
@@ -33133,7 +32571,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="347" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="347" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A347" s="37">
         <v>303</v>
       </c>
@@ -33169,7 +32607,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="348" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="348" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A348" s="37">
         <v>304</v>
       </c>
@@ -33205,7 +32643,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="349" spans="1:14" s="4" customFormat="1" ht="90">
+    <row r="349" spans="1:14" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.3">
       <c r="A349" s="37">
         <v>305</v>
       </c>
@@ -33241,7 +32679,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="350" spans="1:14" s="4" customFormat="1" ht="134.25">
+    <row r="350" spans="1:14" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.3">
       <c r="A350" s="37">
         <v>306</v>
       </c>
@@ -33277,7 +32715,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="351" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="351" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A351" s="37">
         <v>307</v>
       </c>
@@ -33313,7 +32751,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="352" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="352" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A352" s="37">
         <v>308</v>
       </c>
@@ -33349,7 +32787,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="353" spans="1:14" s="4" customFormat="1" ht="180" customHeight="1">
+    <row r="353" spans="1:14" s="4" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="37">
         <v>309</v>
       </c>
@@ -33385,7 +32823,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="354" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="354" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A354" s="37">
         <v>310</v>
       </c>
@@ -33421,7 +32859,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="355" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="355" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A355" s="37">
         <v>311</v>
       </c>
@@ -33457,7 +32895,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="356" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="356" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A356" s="37">
         <v>312</v>
       </c>
@@ -33493,7 +32931,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="357" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="357" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A357" s="37">
         <v>313</v>
       </c>
@@ -33529,7 +32967,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="358" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="358" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A358" s="37">
         <v>314</v>
       </c>
@@ -33565,7 +33003,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="359" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="359" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A359" s="37">
         <v>315</v>
       </c>
@@ -33601,7 +33039,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="360" spans="1:14" s="4" customFormat="1" ht="123" customHeight="1">
+    <row r="360" spans="1:14" s="4" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="37">
         <v>316</v>
       </c>
@@ -33637,7 +33075,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="361" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="361" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A361" s="37">
         <v>317</v>
       </c>
@@ -33673,7 +33111,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="362" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="362" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A362" s="37">
         <v>318</v>
       </c>
@@ -33709,7 +33147,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="363" spans="1:14" s="4" customFormat="1" ht="183.75" customHeight="1">
+    <row r="363" spans="1:14" s="4" customFormat="1" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="37">
         <v>319</v>
       </c>
@@ -33747,7 +33185,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="364" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="364" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A364" s="37">
         <v>320</v>
       </c>
@@ -33783,7 +33221,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="365" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="365" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A365" s="37">
         <v>321</v>
       </c>
@@ -33819,7 +33257,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="366" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="366" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A366" s="37">
         <v>322</v>
       </c>
@@ -33855,7 +33293,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="367" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="367" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A367" s="37">
         <v>323</v>
       </c>
@@ -33891,7 +33329,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="368" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="368" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A368" s="37">
         <v>324</v>
       </c>
@@ -33927,7 +33365,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="369" spans="1:14" s="4" customFormat="1" ht="46.5" customHeight="1">
+    <row r="369" spans="1:14" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="37">
         <v>325</v>
       </c>
@@ -33963,7 +33401,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="370" spans="1:14" s="4" customFormat="1" ht="108.75" customHeight="1">
+    <row r="370" spans="1:14" s="4" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="37"/>
       <c r="B370" s="34" t="s">
         <v>2500</v>
@@ -33997,7 +33435,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="371" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="371" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A371" s="37">
         <v>326</v>
       </c>
@@ -34033,7 +33471,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="372" spans="1:14" s="4" customFormat="1" ht="138" customHeight="1">
+    <row r="372" spans="1:14" s="4" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="37">
         <v>327</v>
       </c>
@@ -34071,7 +33509,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="373" spans="1:14" s="4" customFormat="1" ht="94.5" customHeight="1">
+    <row r="373" spans="1:14" s="4" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="37">
         <v>328</v>
       </c>
@@ -34107,7 +33545,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="374" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="374" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A374" s="37">
         <v>329</v>
       </c>
@@ -34141,7 +33579,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="375" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="375" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A375" s="37">
         <v>330</v>
       </c>
@@ -34177,7 +33615,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="376" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="376" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A376" s="37">
         <v>331</v>
       </c>
@@ -34213,7 +33651,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="377" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="377" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A377" s="37">
         <v>332</v>
       </c>
@@ -34249,7 +33687,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="378" spans="1:14" s="4" customFormat="1" ht="78" customHeight="1">
+    <row r="378" spans="1:14" s="4" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="37">
         <v>333</v>
       </c>
@@ -34285,7 +33723,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="379" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="379" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A379" s="37">
         <v>334</v>
       </c>
@@ -34321,7 +33759,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="380" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="380" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A380" s="37">
         <v>335</v>
       </c>
@@ -34357,7 +33795,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="381" spans="1:14" s="4" customFormat="1" ht="111" customHeight="1">
+    <row r="381" spans="1:14" s="4" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="37">
         <v>336</v>
       </c>
@@ -34391,7 +33829,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="382" spans="1:14" s="4" customFormat="1" ht="30">
+    <row r="382" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A382" s="37">
         <v>337</v>
       </c>
@@ -34425,7 +33863,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="383" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="383" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A383" s="37">
         <v>338</v>
       </c>
@@ -34461,7 +33899,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="384" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="384" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A384" s="37">
         <v>339</v>
       </c>
@@ -34497,7 +33935,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="385" spans="1:23" s="4" customFormat="1" ht="94.5" customHeight="1">
+    <row r="385" spans="1:23" s="4" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="37">
         <v>340</v>
       </c>
@@ -34533,7 +33971,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="386" spans="1:23" s="4" customFormat="1" ht="60">
+    <row r="386" spans="1:23" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A386" s="37">
         <v>341</v>
       </c>
@@ -34569,7 +34007,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="387" spans="1:23" s="4" customFormat="1" ht="77.25" customHeight="1">
+    <row r="387" spans="1:23" s="4" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="37">
         <v>342</v>
       </c>
@@ -34605,7 +34043,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="388" spans="1:23" s="4" customFormat="1" ht="105">
+    <row r="388" spans="1:23" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.3">
       <c r="A388" s="37">
         <v>343</v>
       </c>
@@ -34641,7 +34079,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="389" spans="1:23" s="4" customFormat="1" ht="110.25" customHeight="1">
+    <row r="389" spans="1:23" s="4" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="37">
         <v>344</v>
       </c>
@@ -34688,7 +34126,7 @@
       <c r="V389" s="14"/>
       <c r="W389" s="14"/>
     </row>
-    <row r="390" spans="1:23" s="4" customFormat="1" ht="45">
+    <row r="390" spans="1:23" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A390" s="37">
         <v>345</v>
       </c>
@@ -34724,7 +34162,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="391" spans="1:23" s="4" customFormat="1" ht="90">
+    <row r="391" spans="1:23" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.3">
       <c r="A391" s="37">
         <v>346</v>
       </c>
@@ -34760,7 +34198,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="392" spans="1:23" s="4" customFormat="1" ht="45">
+    <row r="392" spans="1:23" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A392" s="37">
         <v>347</v>
       </c>
@@ -34796,7 +34234,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="393" spans="1:23" s="4" customFormat="1" ht="64.5" customHeight="1">
+    <row r="393" spans="1:23" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="37">
         <v>348</v>
       </c>
@@ -34832,7 +34270,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="394" spans="1:23" s="4" customFormat="1" ht="141" customHeight="1">
+    <row r="394" spans="1:23" s="4" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="37">
         <v>349</v>
       </c>
@@ -34870,7 +34308,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="395" spans="1:23" s="4" customFormat="1" ht="60">
+    <row r="395" spans="1:23" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A395" s="37">
         <v>350</v>
       </c>
@@ -34906,7 +34344,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="396" spans="1:23" s="4" customFormat="1" ht="45">
+    <row r="396" spans="1:23" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A396" s="37">
         <v>351</v>
       </c>
@@ -34940,7 +34378,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="397" spans="1:23" s="4" customFormat="1" ht="45">
+    <row r="397" spans="1:23" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A397" s="37">
         <v>352</v>
       </c>
@@ -34976,7 +34414,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="398" spans="1:23" s="4" customFormat="1" ht="63.75" customHeight="1">
+    <row r="398" spans="1:23" s="4" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="37">
         <v>353</v>
       </c>
@@ -35012,7 +34450,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="399" spans="1:23" s="4" customFormat="1" ht="75">
+    <row r="399" spans="1:23" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A399" s="37">
         <v>354</v>
       </c>
@@ -35046,7 +34484,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="400" spans="1:23" s="4" customFormat="1" ht="60">
+    <row r="400" spans="1:23" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A400" s="37">
         <v>355</v>
       </c>
@@ -35080,7 +34518,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="401" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="401" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A401" s="37">
         <v>356</v>
       </c>
@@ -35116,7 +34554,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="402" spans="1:14" s="4" customFormat="1" ht="75.75" customHeight="1">
+    <row r="402" spans="1:14" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="37">
         <v>357</v>
       </c>
@@ -35152,7 +34590,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="403" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="403" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A403" s="37">
         <v>358</v>
       </c>
@@ -35188,7 +34626,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="404" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="404" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A404" s="37">
         <v>359</v>
       </c>
@@ -35224,7 +34662,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="405" spans="1:14" s="4" customFormat="1" ht="124.5" customHeight="1">
+    <row r="405" spans="1:14" s="4" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="37">
         <v>360</v>
       </c>
@@ -35260,7 +34698,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="406" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="406" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A406" s="37">
         <v>361</v>
       </c>
@@ -35296,7 +34734,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="407" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="407" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A407" s="37">
         <v>362</v>
       </c>
@@ -35332,7 +34770,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="408" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="408" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A408" s="37">
         <v>363</v>
       </c>
@@ -35368,7 +34806,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="409" spans="1:14" s="4" customFormat="1" ht="91.5" customHeight="1">
+    <row r="409" spans="1:14" s="4" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="37">
         <v>364</v>
       </c>
@@ -35404,7 +34842,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="410" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="410" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A410" s="37">
         <v>365</v>
       </c>
@@ -35440,7 +34878,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="411" spans="1:14" s="4" customFormat="1" ht="108" customHeight="1">
+    <row r="411" spans="1:14" s="4" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="37">
         <v>366</v>
       </c>
@@ -35476,7 +34914,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="412" spans="1:14" s="4" customFormat="1" ht="75">
+    <row r="412" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A412" s="37">
         <v>367</v>
       </c>
@@ -35512,7 +34950,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="413" spans="1:14" s="4" customFormat="1" ht="259.5" customHeight="1">
+    <row r="413" spans="1:14" s="4" customFormat="1" ht="259.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="37">
         <v>368</v>
       </c>
@@ -35550,7 +34988,7 @@
         <v>3401</v>
       </c>
     </row>
-    <row r="414" spans="1:14" s="4" customFormat="1" ht="110.25" customHeight="1">
+    <row r="414" spans="1:14" s="4" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="37">
         <v>369</v>
       </c>
@@ -35586,7 +35024,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="415" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="415" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A415" s="37">
         <v>370</v>
       </c>
@@ -35622,7 +35060,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="416" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="416" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A416" s="37">
         <v>371</v>
       </c>
@@ -35658,7 +35096,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="417" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="417" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A417" s="37">
         <v>372</v>
       </c>
@@ -35694,7 +35132,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="418" spans="1:14" s="4" customFormat="1" ht="33" customHeight="1">
+    <row r="418" spans="1:14" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="37">
         <v>373</v>
       </c>
@@ -35730,7 +35168,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="419" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="419" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A419" s="37">
         <v>378</v>
       </c>
@@ -35766,7 +35204,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="420" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="420" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A420" s="37">
         <v>374</v>
       </c>
@@ -35802,7 +35240,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="421" spans="1:14" s="4" customFormat="1" ht="78.75" customHeight="1">
+    <row r="421" spans="1:14" s="4" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="37">
         <v>375</v>
       </c>
@@ -35838,7 +35276,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="422" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="422" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A422" s="37">
         <v>376</v>
       </c>
@@ -35874,7 +35312,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="423" spans="1:14" s="4" customFormat="1" ht="188.25" customHeight="1">
+    <row r="423" spans="1:14" s="4" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="37">
         <v>377</v>
       </c>
@@ -35912,7 +35350,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="424" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="424" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A424" s="37">
         <v>378</v>
       </c>
@@ -35948,7 +35386,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="425" spans="1:14" s="4" customFormat="1" ht="30">
+    <row r="425" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A425" s="37">
         <v>379</v>
       </c>
@@ -35984,7 +35422,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="426" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="426" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A426" s="37">
         <v>380</v>
       </c>
@@ -36016,7 +35454,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="427" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="427" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A427" s="37">
         <v>381</v>
       </c>
@@ -36052,7 +35490,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="428" spans="1:14" s="4" customFormat="1" ht="30">
+    <row r="428" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A428" s="37">
         <v>382</v>
       </c>
@@ -36088,7 +35526,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="429" spans="1:14" s="4" customFormat="1">
+    <row r="429" spans="1:14" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A429" s="37"/>
       <c r="B429" s="13">
         <v>445</v>
@@ -36106,7 +35544,7 @@
       <c r="M429" s="16"/>
       <c r="N429" s="32"/>
     </row>
-    <row r="430" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="430" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A430" s="37">
         <v>383</v>
       </c>
@@ -36142,7 +35580,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="431" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="431" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A431" s="37">
         <v>384</v>
       </c>
@@ -36178,7 +35616,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="432" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="432" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A432" s="37">
         <v>385</v>
       </c>
@@ -36214,7 +35652,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="433" spans="1:14" s="4" customFormat="1" ht="45.75" customHeight="1">
+    <row r="433" spans="1:14" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="37">
         <v>386</v>
       </c>
@@ -36250,7 +35688,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="434" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="434" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A434" s="37">
         <v>387</v>
       </c>
@@ -36286,7 +35724,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="435" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="435" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A435" s="37">
         <v>388</v>
       </c>
@@ -36322,7 +35760,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="436" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="436" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A436" s="37">
         <v>389</v>
       </c>
@@ -36358,7 +35796,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="437" spans="1:14" s="4" customFormat="1" ht="48" customHeight="1">
+    <row r="437" spans="1:14" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="37">
         <v>390</v>
       </c>
@@ -36394,7 +35832,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="438" spans="1:14" s="4" customFormat="1" ht="34.5" customHeight="1">
+    <row r="438" spans="1:14" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="37">
         <v>391</v>
       </c>
@@ -36428,7 +35866,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="439" spans="1:14" s="4" customFormat="1" ht="108" customHeight="1">
+    <row r="439" spans="1:14" s="4" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="37">
         <v>392</v>
       </c>
@@ -36462,7 +35900,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="440" spans="1:14" s="4" customFormat="1" ht="46.5" customHeight="1">
+    <row r="440" spans="1:14" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="37">
         <v>393</v>
       </c>
@@ -36496,7 +35934,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="441" spans="1:14" s="4" customFormat="1" ht="49.5" customHeight="1">
+    <row r="441" spans="1:14" s="4" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="37">
         <v>394</v>
       </c>
@@ -36530,7 +35968,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="442" spans="1:14" s="4" customFormat="1" ht="77.25" customHeight="1">
+    <row r="442" spans="1:14" s="4" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="37">
         <v>395</v>
       </c>
@@ -36564,7 +36002,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="443" spans="1:14" s="4" customFormat="1" ht="66.75" customHeight="1">
+    <row r="443" spans="1:14" s="4" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="37">
         <v>396</v>
       </c>
@@ -36598,7 +36036,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="444" spans="1:14" s="4" customFormat="1" ht="80.25" customHeight="1">
+    <row r="444" spans="1:14" s="4" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="37">
         <v>397</v>
       </c>
@@ -36632,7 +36070,7 @@
         <v>3337</v>
       </c>
     </row>
-    <row r="445" spans="1:14" s="4" customFormat="1" ht="107.25" customHeight="1">
+    <row r="445" spans="1:14" s="4" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="37">
         <v>398</v>
       </c>
@@ -36668,7 +36106,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="446" spans="1:14" s="4" customFormat="1" ht="65.25" customHeight="1">
+    <row r="446" spans="1:14" s="4" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="37">
         <v>399</v>
       </c>
@@ -36702,7 +36140,7 @@
         <v>3338</v>
       </c>
     </row>
-    <row r="447" spans="1:14" s="4" customFormat="1" ht="75">
+    <row r="447" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A447" s="37">
         <v>400</v>
       </c>
@@ -36738,7 +36176,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="448" spans="1:14" s="4" customFormat="1" ht="81" customHeight="1">
+    <row r="448" spans="1:14" s="4" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="37">
         <v>401</v>
       </c>
@@ -36774,7 +36212,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="449" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="449" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A449" s="18">
         <v>402</v>
       </c>
@@ -36810,7 +36248,7 @@
         <v>3330</v>
       </c>
     </row>
-    <row r="450" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="450" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A450" s="18">
         <v>403</v>
       </c>
@@ -36846,7 +36284,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="451" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="451" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A451" s="18">
         <v>404</v>
       </c>
@@ -36882,7 +36320,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="452" spans="1:14" s="4" customFormat="1" ht="60">
+    <row r="452" spans="1:14" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A452" s="18">
         <v>405</v>
       </c>
@@ -36916,7 +36354,7 @@
         <v>3248</v>
       </c>
     </row>
-    <row r="453" spans="1:14" s="4" customFormat="1" ht="45">
+    <row r="453" spans="1:14" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A453" s="18">
         <v>406</v>
       </c>
@@ -36950,7 +36388,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="454" spans="1:14" s="4" customFormat="1" ht="90">
+    <row r="454" spans="1:14" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A454" s="18">
         <v>407</v>
       </c>
@@ -36984,7 +36422,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="455" spans="1:14" s="4" customFormat="1" ht="88.5" customHeight="1">
+    <row r="455" spans="1:14" s="4" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="18">
         <v>408</v>
       </c>
@@ -37018,7 +36456,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="456" spans="1:14" s="4" customFormat="1" ht="67.5" customHeight="1">
+    <row r="456" spans="1:14" s="4" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="18">
         <v>409</v>
       </c>
@@ -37052,7 +36490,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="457" spans="1:14" s="22" customFormat="1" ht="167.25" customHeight="1">
+    <row r="457" spans="1:14" s="22" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="18">
         <v>410</v>
       </c>
@@ -37090,7 +36528,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row r="458" spans="1:14" s="4" customFormat="1" ht="105">
+    <row r="458" spans="1:14" s="4" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A458" s="18">
         <v>411</v>
       </c>
@@ -37128,7 +36566,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="459" spans="1:14" s="4" customFormat="1" ht="180">
+    <row r="459" spans="1:14" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A459" s="18">
         <v>412</v>
       </c>
@@ -37166,7 +36604,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="460" spans="1:14" s="4" customFormat="1" ht="108.75" customHeight="1">
+    <row r="460" spans="1:14" s="4" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="18">
         <v>413</v>
       </c>
@@ -37204,7 +36642,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="461" spans="1:14" s="4" customFormat="1" ht="180">
+    <row r="461" spans="1:14" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A461" s="18">
         <v>414</v>
       </c>
@@ -37242,7 +36680,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="462" spans="1:14" s="4" customFormat="1" ht="180">
+    <row r="462" spans="1:14" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A462" s="54">
         <v>415</v>
       </c>
@@ -37280,7 +36718,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="463" spans="1:14" s="4" customFormat="1" ht="180">
+    <row r="463" spans="1:14" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A463" s="18">
         <v>416</v>
       </c>
@@ -37318,7 +36756,7 @@
         <v>3443</v>
       </c>
     </row>
-    <row r="464" spans="1:14" s="4" customFormat="1" ht="180">
+    <row r="464" spans="1:14" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A464" s="57">
         <v>417</v>
       </c>
@@ -37356,7 +36794,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="465" spans="1:14" s="4" customFormat="1" ht="180">
+    <row r="465" spans="1:14" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A465" s="61">
         <v>418</v>
       </c>
@@ -37395,7 +36833,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="466" spans="1:14" s="4" customFormat="1" ht="105">
+    <row r="466" spans="1:14" s="4" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A466" s="61">
         <v>419</v>
       </c>
@@ -37433,7 +36871,7 @@
         <v>3463</v>
       </c>
     </row>
-    <row r="467" spans="1:14" s="4" customFormat="1" ht="180">
+    <row r="467" spans="1:14" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A467" s="62">
         <v>420</v>
       </c>
@@ -37471,7 +36909,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="468" spans="1:14" s="4" customFormat="1" ht="180">
+    <row r="468" spans="1:14" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A468" s="65">
         <v>421</v>
       </c>
@@ -37509,1231 +36947,1231 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="469" spans="1:14" s="4" customFormat="1">
+    <row r="469" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A469" s="19"/>
     </row>
-    <row r="470" spans="1:14" s="4" customFormat="1">
+    <row r="470" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A470" s="19"/>
     </row>
-    <row r="471" spans="1:14" s="4" customFormat="1">
+    <row r="471" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A471" s="19"/>
     </row>
-    <row r="472" spans="1:14" s="4" customFormat="1">
+    <row r="472" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A472" s="19"/>
     </row>
-    <row r="473" spans="1:14" s="4" customFormat="1">
+    <row r="473" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A473" s="19"/>
     </row>
-    <row r="474" spans="1:14" s="4" customFormat="1">
+    <row r="474" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A474" s="19"/>
     </row>
-    <row r="475" spans="1:14" s="4" customFormat="1">
+    <row r="475" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="19"/>
     </row>
-    <row r="476" spans="1:14" s="4" customFormat="1">
+    <row r="476" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="19"/>
     </row>
-    <row r="477" spans="1:14" s="4" customFormat="1">
+    <row r="477" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="19"/>
     </row>
-    <row r="478" spans="1:14" s="4" customFormat="1">
+    <row r="478" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A478" s="19"/>
     </row>
-    <row r="479" spans="1:14" s="4" customFormat="1">
+    <row r="479" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A479" s="19"/>
     </row>
-    <row r="480" spans="1:14" s="4" customFormat="1">
+    <row r="480" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A480" s="19"/>
     </row>
-    <row r="481" spans="1:1" s="4" customFormat="1">
+    <row r="481" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A481" s="19"/>
     </row>
-    <row r="482" spans="1:1" s="4" customFormat="1">
+    <row r="482" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A482" s="19"/>
     </row>
-    <row r="483" spans="1:1" s="4" customFormat="1">
+    <row r="483" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A483" s="19"/>
     </row>
-    <row r="484" spans="1:1" s="4" customFormat="1">
+    <row r="484" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A484" s="19"/>
     </row>
-    <row r="485" spans="1:1" s="4" customFormat="1">
+    <row r="485" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A485" s="19"/>
     </row>
-    <row r="486" spans="1:1" s="4" customFormat="1">
+    <row r="486" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A486" s="19"/>
     </row>
-    <row r="487" spans="1:1" s="4" customFormat="1">
+    <row r="487" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A487" s="19"/>
     </row>
-    <row r="488" spans="1:1" s="4" customFormat="1">
+    <row r="488" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A488" s="19"/>
     </row>
-    <row r="489" spans="1:1" s="4" customFormat="1">
+    <row r="489" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A489" s="19"/>
     </row>
-    <row r="490" spans="1:1" s="4" customFormat="1">
+    <row r="490" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A490" s="19"/>
     </row>
-    <row r="491" spans="1:1" s="4" customFormat="1">
+    <row r="491" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A491" s="19"/>
     </row>
-    <row r="492" spans="1:1" s="4" customFormat="1">
+    <row r="492" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A492" s="19"/>
     </row>
-    <row r="493" spans="1:1" s="4" customFormat="1">
+    <row r="493" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A493" s="19"/>
     </row>
-    <row r="494" spans="1:1" s="4" customFormat="1">
+    <row r="494" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A494" s="19"/>
     </row>
-    <row r="495" spans="1:1" s="4" customFormat="1">
+    <row r="495" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A495" s="19"/>
     </row>
-    <row r="496" spans="1:1" s="4" customFormat="1">
+    <row r="496" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="19"/>
     </row>
-    <row r="497" spans="1:1" s="4" customFormat="1">
+    <row r="497" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="19"/>
     </row>
-    <row r="498" spans="1:1" s="4" customFormat="1">
+    <row r="498" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="19"/>
     </row>
-    <row r="499" spans="1:1" s="4" customFormat="1">
+    <row r="499" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="19"/>
     </row>
-    <row r="500" spans="1:1" s="4" customFormat="1">
+    <row r="500" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="19"/>
     </row>
-    <row r="501" spans="1:1" s="4" customFormat="1">
+    <row r="501" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="19"/>
     </row>
-    <row r="502" spans="1:1" s="4" customFormat="1">
+    <row r="502" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A502" s="19"/>
     </row>
-    <row r="503" spans="1:1" s="4" customFormat="1">
+    <row r="503" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A503" s="19"/>
     </row>
-    <row r="504" spans="1:1" s="4" customFormat="1">
+    <row r="504" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A504" s="19"/>
     </row>
-    <row r="505" spans="1:1" s="4" customFormat="1">
+    <row r="505" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A505" s="19"/>
     </row>
-    <row r="506" spans="1:1" s="4" customFormat="1">
+    <row r="506" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A506" s="19"/>
     </row>
-    <row r="507" spans="1:1" s="4" customFormat="1">
+    <row r="507" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A507" s="19"/>
     </row>
-    <row r="508" spans="1:1" s="4" customFormat="1">
+    <row r="508" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A508" s="19"/>
     </row>
-    <row r="509" spans="1:1" s="4" customFormat="1">
+    <row r="509" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A509" s="19"/>
     </row>
-    <row r="510" spans="1:1" s="4" customFormat="1">
+    <row r="510" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A510" s="19"/>
     </row>
-    <row r="511" spans="1:1" s="4" customFormat="1">
+    <row r="511" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A511" s="19"/>
     </row>
-    <row r="512" spans="1:1" s="4" customFormat="1">
+    <row r="512" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A512" s="19"/>
     </row>
-    <row r="513" spans="1:1" s="4" customFormat="1">
+    <row r="513" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A513" s="19"/>
     </row>
-    <row r="514" spans="1:1" s="4" customFormat="1">
+    <row r="514" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A514" s="19"/>
     </row>
-    <row r="515" spans="1:1" s="4" customFormat="1">
+    <row r="515" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A515" s="19"/>
     </row>
-    <row r="516" spans="1:1" s="4" customFormat="1">
+    <row r="516" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A516" s="19"/>
     </row>
-    <row r="517" spans="1:1" s="4" customFormat="1">
+    <row r="517" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A517" s="19"/>
     </row>
-    <row r="518" spans="1:1" s="4" customFormat="1">
+    <row r="518" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A518" s="19"/>
     </row>
-    <row r="519" spans="1:1" s="4" customFormat="1">
+    <row r="519" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A519" s="19"/>
     </row>
-    <row r="520" spans="1:1" s="4" customFormat="1">
+    <row r="520" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A520" s="19"/>
     </row>
-    <row r="521" spans="1:1" s="4" customFormat="1">
+    <row r="521" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A521" s="19"/>
     </row>
-    <row r="522" spans="1:1" s="4" customFormat="1">
+    <row r="522" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A522" s="19"/>
     </row>
-    <row r="523" spans="1:1" s="4" customFormat="1">
+    <row r="523" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A523" s="19"/>
     </row>
-    <row r="524" spans="1:1" s="4" customFormat="1">
+    <row r="524" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A524" s="19"/>
     </row>
-    <row r="525" spans="1:1" s="4" customFormat="1">
+    <row r="525" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A525" s="19"/>
     </row>
-    <row r="526" spans="1:1" s="4" customFormat="1">
+    <row r="526" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A526" s="19"/>
     </row>
-    <row r="527" spans="1:1" s="4" customFormat="1">
+    <row r="527" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A527" s="19"/>
     </row>
-    <row r="528" spans="1:1" s="4" customFormat="1">
+    <row r="528" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A528" s="19"/>
     </row>
-    <row r="529" spans="1:1" s="4" customFormat="1">
+    <row r="529" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A529" s="19"/>
     </row>
-    <row r="530" spans="1:1" s="4" customFormat="1">
+    <row r="530" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A530" s="19"/>
     </row>
-    <row r="531" spans="1:1" s="4" customFormat="1">
+    <row r="531" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A531" s="19"/>
     </row>
-    <row r="532" spans="1:1" s="4" customFormat="1">
+    <row r="532" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A532" s="19"/>
     </row>
-    <row r="533" spans="1:1" s="4" customFormat="1">
+    <row r="533" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A533" s="19"/>
     </row>
-    <row r="534" spans="1:1" s="4" customFormat="1">
+    <row r="534" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A534" s="19"/>
     </row>
-    <row r="535" spans="1:1" s="4" customFormat="1">
+    <row r="535" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A535" s="19"/>
     </row>
-    <row r="536" spans="1:1" s="4" customFormat="1">
+    <row r="536" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A536" s="19"/>
     </row>
-    <row r="537" spans="1:1" s="4" customFormat="1">
+    <row r="537" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A537" s="19"/>
     </row>
-    <row r="538" spans="1:1" s="4" customFormat="1">
+    <row r="538" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A538" s="19"/>
     </row>
-    <row r="539" spans="1:1" s="4" customFormat="1">
+    <row r="539" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A539" s="19"/>
     </row>
-    <row r="540" spans="1:1" s="4" customFormat="1">
+    <row r="540" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A540" s="19"/>
     </row>
-    <row r="541" spans="1:1" s="4" customFormat="1">
+    <row r="541" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A541" s="19"/>
     </row>
-    <row r="542" spans="1:1" s="4" customFormat="1">
+    <row r="542" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A542" s="19"/>
     </row>
-    <row r="543" spans="1:1" s="4" customFormat="1">
+    <row r="543" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A543" s="19"/>
     </row>
-    <row r="544" spans="1:1" s="4" customFormat="1">
+    <row r="544" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A544" s="19"/>
     </row>
-    <row r="545" spans="1:1" s="4" customFormat="1">
+    <row r="545" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A545" s="19"/>
     </row>
-    <row r="546" spans="1:1" s="4" customFormat="1">
+    <row r="546" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A546" s="19"/>
     </row>
-    <row r="547" spans="1:1" s="4" customFormat="1">
+    <row r="547" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A547" s="19"/>
     </row>
-    <row r="548" spans="1:1" s="4" customFormat="1">
+    <row r="548" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A548" s="19"/>
     </row>
-    <row r="549" spans="1:1" s="4" customFormat="1">
+    <row r="549" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A549" s="19"/>
     </row>
-    <row r="550" spans="1:1" s="4" customFormat="1">
+    <row r="550" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A550" s="19"/>
     </row>
-    <row r="551" spans="1:1" s="4" customFormat="1">
+    <row r="551" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A551" s="19"/>
     </row>
-    <row r="552" spans="1:1" s="4" customFormat="1">
+    <row r="552" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A552" s="19"/>
     </row>
-    <row r="553" spans="1:1" s="4" customFormat="1">
+    <row r="553" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A553" s="19"/>
     </row>
-    <row r="554" spans="1:1" s="4" customFormat="1">
+    <row r="554" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A554" s="19"/>
     </row>
-    <row r="555" spans="1:1" s="4" customFormat="1">
+    <row r="555" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A555" s="19"/>
     </row>
-    <row r="556" spans="1:1" s="4" customFormat="1">
+    <row r="556" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A556" s="19"/>
     </row>
-    <row r="557" spans="1:1" s="4" customFormat="1">
+    <row r="557" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A557" s="19"/>
     </row>
-    <row r="558" spans="1:1" s="4" customFormat="1">
+    <row r="558" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A558" s="19"/>
     </row>
-    <row r="559" spans="1:1" s="4" customFormat="1">
+    <row r="559" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A559" s="19"/>
     </row>
-    <row r="560" spans="1:1" s="4" customFormat="1">
+    <row r="560" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A560" s="19"/>
     </row>
-    <row r="561" spans="1:1" s="4" customFormat="1">
+    <row r="561" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A561" s="19"/>
     </row>
-    <row r="562" spans="1:1" s="4" customFormat="1">
+    <row r="562" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A562" s="19"/>
     </row>
-    <row r="563" spans="1:1" s="4" customFormat="1">
+    <row r="563" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A563" s="19"/>
     </row>
-    <row r="564" spans="1:1" s="4" customFormat="1">
+    <row r="564" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A564" s="19"/>
     </row>
-    <row r="565" spans="1:1" s="4" customFormat="1">
+    <row r="565" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A565" s="19"/>
     </row>
-    <row r="566" spans="1:1" s="4" customFormat="1">
+    <row r="566" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A566" s="19"/>
     </row>
-    <row r="567" spans="1:1" s="4" customFormat="1">
+    <row r="567" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A567" s="19"/>
     </row>
-    <row r="568" spans="1:1" s="4" customFormat="1">
+    <row r="568" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A568" s="19"/>
     </row>
-    <row r="569" spans="1:1" s="4" customFormat="1">
+    <row r="569" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A569" s="19"/>
     </row>
-    <row r="570" spans="1:1" s="4" customFormat="1">
+    <row r="570" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A570" s="19"/>
     </row>
-    <row r="571" spans="1:1" s="4" customFormat="1">
+    <row r="571" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A571" s="19"/>
     </row>
-    <row r="572" spans="1:1" s="4" customFormat="1">
+    <row r="572" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A572" s="19"/>
     </row>
-    <row r="573" spans="1:1" s="4" customFormat="1">
+    <row r="573" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A573" s="19"/>
     </row>
-    <row r="574" spans="1:1" s="4" customFormat="1">
+    <row r="574" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A574" s="19"/>
     </row>
-    <row r="575" spans="1:1" s="4" customFormat="1">
+    <row r="575" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A575" s="19"/>
     </row>
-    <row r="576" spans="1:1" s="4" customFormat="1">
+    <row r="576" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A576" s="19"/>
     </row>
-    <row r="577" spans="1:1" s="4" customFormat="1">
+    <row r="577" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A577" s="19"/>
     </row>
-    <row r="578" spans="1:1" s="4" customFormat="1">
+    <row r="578" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A578" s="19"/>
     </row>
-    <row r="579" spans="1:1" s="4" customFormat="1">
+    <row r="579" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A579" s="19"/>
     </row>
-    <row r="580" spans="1:1" s="4" customFormat="1">
+    <row r="580" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A580" s="19"/>
     </row>
-    <row r="581" spans="1:1" s="4" customFormat="1">
+    <row r="581" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A581" s="19"/>
     </row>
-    <row r="582" spans="1:1" s="4" customFormat="1">
+    <row r="582" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A582" s="19"/>
     </row>
-    <row r="583" spans="1:1" s="4" customFormat="1">
+    <row r="583" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A583" s="19"/>
     </row>
-    <row r="584" spans="1:1" s="4" customFormat="1">
+    <row r="584" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A584" s="19"/>
     </row>
-    <row r="585" spans="1:1" s="4" customFormat="1">
+    <row r="585" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A585" s="19"/>
     </row>
-    <row r="586" spans="1:1" s="4" customFormat="1">
+    <row r="586" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A586" s="19"/>
     </row>
-    <row r="587" spans="1:1" s="4" customFormat="1">
+    <row r="587" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A587" s="19"/>
     </row>
-    <row r="588" spans="1:1" s="4" customFormat="1">
+    <row r="588" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A588" s="19"/>
     </row>
-    <row r="589" spans="1:1" s="4" customFormat="1">
+    <row r="589" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A589" s="19"/>
     </row>
-    <row r="590" spans="1:1" s="4" customFormat="1">
+    <row r="590" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A590" s="19"/>
     </row>
-    <row r="591" spans="1:1" s="4" customFormat="1">
+    <row r="591" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A591" s="19"/>
     </row>
-    <row r="592" spans="1:1" s="4" customFormat="1">
+    <row r="592" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A592" s="19"/>
     </row>
-    <row r="593" spans="1:1" s="4" customFormat="1">
+    <row r="593" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A593" s="19"/>
     </row>
-    <row r="594" spans="1:1" s="4" customFormat="1">
+    <row r="594" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A594" s="19"/>
     </row>
-    <row r="595" spans="1:1" s="4" customFormat="1">
+    <row r="595" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A595" s="19"/>
     </row>
-    <row r="596" spans="1:1" s="4" customFormat="1">
+    <row r="596" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A596" s="19"/>
     </row>
-    <row r="597" spans="1:1" s="4" customFormat="1">
+    <row r="597" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A597" s="19"/>
     </row>
-    <row r="598" spans="1:1" s="4" customFormat="1">
+    <row r="598" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A598" s="19"/>
     </row>
-    <row r="599" spans="1:1" s="4" customFormat="1">
+    <row r="599" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A599" s="19"/>
     </row>
-    <row r="600" spans="1:1" s="4" customFormat="1">
+    <row r="600" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A600" s="19"/>
     </row>
-    <row r="601" spans="1:1" s="4" customFormat="1">
+    <row r="601" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A601" s="19"/>
     </row>
-    <row r="602" spans="1:1" s="4" customFormat="1">
+    <row r="602" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A602" s="19"/>
     </row>
-    <row r="603" spans="1:1" s="4" customFormat="1">
+    <row r="603" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A603" s="19"/>
     </row>
-    <row r="604" spans="1:1" s="4" customFormat="1">
+    <row r="604" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A604" s="19"/>
     </row>
-    <row r="605" spans="1:1" s="4" customFormat="1">
+    <row r="605" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A605" s="19"/>
     </row>
-    <row r="606" spans="1:1" s="4" customFormat="1">
+    <row r="606" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A606" s="19"/>
     </row>
-    <row r="607" spans="1:1" s="4" customFormat="1">
+    <row r="607" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A607" s="19"/>
     </row>
-    <row r="608" spans="1:1" s="4" customFormat="1">
+    <row r="608" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A608" s="19"/>
     </row>
-    <row r="609" spans="1:1" s="4" customFormat="1">
+    <row r="609" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A609" s="19"/>
     </row>
-    <row r="610" spans="1:1" s="4" customFormat="1">
+    <row r="610" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A610" s="19"/>
     </row>
-    <row r="611" spans="1:1" s="4" customFormat="1">
+    <row r="611" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A611" s="19"/>
     </row>
-    <row r="612" spans="1:1" s="4" customFormat="1">
+    <row r="612" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A612" s="19"/>
     </row>
-    <row r="613" spans="1:1" s="4" customFormat="1">
+    <row r="613" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A613" s="19"/>
     </row>
-    <row r="614" spans="1:1" s="4" customFormat="1">
+    <row r="614" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A614" s="19"/>
     </row>
-    <row r="615" spans="1:1" s="4" customFormat="1">
+    <row r="615" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A615" s="19"/>
     </row>
-    <row r="616" spans="1:1" s="4" customFormat="1">
+    <row r="616" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A616" s="19"/>
     </row>
-    <row r="617" spans="1:1" s="4" customFormat="1">
+    <row r="617" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A617" s="19"/>
     </row>
-    <row r="618" spans="1:1" s="4" customFormat="1">
+    <row r="618" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A618" s="19"/>
     </row>
-    <row r="619" spans="1:1" s="4" customFormat="1">
+    <row r="619" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A619" s="19"/>
     </row>
-    <row r="620" spans="1:1" s="4" customFormat="1">
+    <row r="620" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A620" s="19"/>
     </row>
-    <row r="621" spans="1:1" s="4" customFormat="1">
+    <row r="621" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A621" s="19"/>
     </row>
-    <row r="622" spans="1:1" s="4" customFormat="1">
+    <row r="622" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A622" s="19"/>
     </row>
-    <row r="623" spans="1:1" s="4" customFormat="1">
+    <row r="623" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A623" s="19"/>
     </row>
-    <row r="624" spans="1:1" s="4" customFormat="1">
+    <row r="624" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A624" s="19"/>
     </row>
-    <row r="625" spans="1:1" s="4" customFormat="1">
+    <row r="625" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A625" s="19"/>
     </row>
-    <row r="626" spans="1:1" s="4" customFormat="1">
+    <row r="626" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A626" s="19"/>
     </row>
-    <row r="627" spans="1:1" s="4" customFormat="1">
+    <row r="627" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A627" s="19"/>
     </row>
-    <row r="628" spans="1:1" s="4" customFormat="1">
+    <row r="628" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A628" s="19"/>
     </row>
-    <row r="629" spans="1:1" s="4" customFormat="1">
+    <row r="629" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A629" s="19"/>
     </row>
-    <row r="630" spans="1:1" s="4" customFormat="1">
+    <row r="630" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A630" s="19"/>
     </row>
-    <row r="631" spans="1:1" s="4" customFormat="1">
+    <row r="631" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A631" s="19"/>
     </row>
-    <row r="632" spans="1:1" s="4" customFormat="1">
+    <row r="632" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A632" s="19"/>
     </row>
-    <row r="633" spans="1:1" s="4" customFormat="1">
+    <row r="633" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A633" s="19"/>
     </row>
-    <row r="634" spans="1:1" s="4" customFormat="1">
+    <row r="634" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A634" s="19"/>
     </row>
-    <row r="635" spans="1:1" s="4" customFormat="1">
+    <row r="635" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A635" s="19"/>
     </row>
-    <row r="636" spans="1:1" s="4" customFormat="1">
+    <row r="636" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A636" s="19"/>
     </row>
-    <row r="637" spans="1:1" s="4" customFormat="1">
+    <row r="637" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A637" s="19"/>
     </row>
-    <row r="638" spans="1:1" s="4" customFormat="1">
+    <row r="638" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A638" s="19"/>
     </row>
-    <row r="639" spans="1:1" s="4" customFormat="1">
+    <row r="639" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A639" s="19"/>
     </row>
-    <row r="640" spans="1:1" s="4" customFormat="1">
+    <row r="640" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A640" s="19"/>
     </row>
-    <row r="641" spans="1:1" s="4" customFormat="1">
+    <row r="641" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A641" s="19"/>
     </row>
-    <row r="642" spans="1:1" s="4" customFormat="1">
+    <row r="642" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A642" s="19"/>
     </row>
-    <row r="643" spans="1:1" s="4" customFormat="1">
+    <row r="643" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A643" s="19"/>
     </row>
-    <row r="644" spans="1:1" s="4" customFormat="1">
+    <row r="644" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A644" s="19"/>
     </row>
-    <row r="645" spans="1:1" s="4" customFormat="1">
+    <row r="645" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A645" s="19"/>
     </row>
-    <row r="646" spans="1:1" s="4" customFormat="1">
+    <row r="646" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A646" s="19"/>
     </row>
-    <row r="647" spans="1:1" s="4" customFormat="1">
+    <row r="647" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A647" s="19"/>
     </row>
-    <row r="648" spans="1:1" s="4" customFormat="1">
+    <row r="648" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A648" s="19"/>
     </row>
-    <row r="649" spans="1:1" s="4" customFormat="1">
+    <row r="649" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A649" s="19"/>
     </row>
-    <row r="650" spans="1:1" s="4" customFormat="1">
+    <row r="650" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A650" s="19"/>
     </row>
-    <row r="651" spans="1:1" s="4" customFormat="1">
+    <row r="651" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A651" s="19"/>
     </row>
-    <row r="652" spans="1:1" s="4" customFormat="1">
+    <row r="652" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A652" s="19"/>
     </row>
-    <row r="653" spans="1:1" s="4" customFormat="1">
+    <row r="653" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A653" s="19"/>
     </row>
-    <row r="654" spans="1:1" s="4" customFormat="1">
+    <row r="654" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A654" s="19"/>
     </row>
-    <row r="655" spans="1:1" s="4" customFormat="1">
+    <row r="655" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A655" s="19"/>
     </row>
-    <row r="656" spans="1:1" s="4" customFormat="1">
+    <row r="656" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A656" s="19"/>
     </row>
-    <row r="657" spans="1:1" s="4" customFormat="1">
+    <row r="657" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A657" s="19"/>
     </row>
-    <row r="658" spans="1:1" s="4" customFormat="1">
+    <row r="658" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A658" s="19"/>
     </row>
-    <row r="659" spans="1:1" s="4" customFormat="1">
+    <row r="659" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A659" s="19"/>
     </row>
-    <row r="660" spans="1:1" s="4" customFormat="1">
+    <row r="660" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A660" s="19"/>
     </row>
-    <row r="661" spans="1:1" s="4" customFormat="1">
+    <row r="661" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A661" s="19"/>
     </row>
-    <row r="662" spans="1:1" s="4" customFormat="1">
+    <row r="662" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A662" s="19"/>
     </row>
-    <row r="663" spans="1:1" s="4" customFormat="1">
+    <row r="663" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A663" s="19"/>
     </row>
-    <row r="664" spans="1:1" s="4" customFormat="1">
+    <row r="664" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A664" s="19"/>
     </row>
-    <row r="665" spans="1:1" s="4" customFormat="1">
+    <row r="665" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A665" s="19"/>
     </row>
-    <row r="666" spans="1:1" s="4" customFormat="1">
+    <row r="666" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A666" s="19"/>
     </row>
-    <row r="667" spans="1:1" s="4" customFormat="1">
+    <row r="667" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A667" s="19"/>
     </row>
-    <row r="668" spans="1:1" s="4" customFormat="1">
+    <row r="668" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A668" s="19"/>
     </row>
-    <row r="669" spans="1:1" s="4" customFormat="1">
+    <row r="669" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A669" s="19"/>
     </row>
-    <row r="670" spans="1:1" s="4" customFormat="1">
+    <row r="670" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A670" s="19"/>
     </row>
-    <row r="671" spans="1:1" s="4" customFormat="1">
+    <row r="671" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A671" s="19"/>
     </row>
-    <row r="672" spans="1:1" s="4" customFormat="1">
+    <row r="672" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A672" s="19"/>
     </row>
-    <row r="673" spans="1:1" s="4" customFormat="1">
+    <row r="673" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A673" s="19"/>
     </row>
-    <row r="674" spans="1:1" s="4" customFormat="1">
+    <row r="674" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A674" s="19"/>
     </row>
-    <row r="675" spans="1:1" s="4" customFormat="1">
+    <row r="675" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A675" s="19"/>
     </row>
-    <row r="676" spans="1:1" s="4" customFormat="1">
+    <row r="676" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A676" s="19"/>
     </row>
-    <row r="677" spans="1:1" s="4" customFormat="1">
+    <row r="677" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A677" s="19"/>
     </row>
-    <row r="678" spans="1:1" s="4" customFormat="1">
+    <row r="678" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A678" s="19"/>
     </row>
-    <row r="679" spans="1:1" s="4" customFormat="1">
+    <row r="679" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A679" s="19"/>
     </row>
-    <row r="680" spans="1:1" s="4" customFormat="1">
+    <row r="680" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A680" s="19"/>
     </row>
-    <row r="681" spans="1:1" s="4" customFormat="1">
+    <row r="681" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A681" s="19"/>
     </row>
-    <row r="682" spans="1:1" s="4" customFormat="1">
+    <row r="682" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A682" s="19"/>
     </row>
-    <row r="683" spans="1:1" s="4" customFormat="1">
+    <row r="683" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A683" s="19"/>
     </row>
-    <row r="684" spans="1:1" s="4" customFormat="1">
+    <row r="684" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A684" s="19"/>
     </row>
-    <row r="685" spans="1:1" s="4" customFormat="1">
+    <row r="685" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A685" s="19"/>
     </row>
-    <row r="686" spans="1:1" s="4" customFormat="1">
+    <row r="686" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A686" s="19"/>
     </row>
-    <row r="687" spans="1:1" s="4" customFormat="1">
+    <row r="687" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A687" s="19"/>
     </row>
-    <row r="688" spans="1:1" s="4" customFormat="1">
+    <row r="688" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A688" s="19"/>
     </row>
-    <row r="689" spans="1:1" s="4" customFormat="1">
+    <row r="689" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A689" s="19"/>
     </row>
-    <row r="690" spans="1:1" s="4" customFormat="1">
+    <row r="690" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A690" s="19"/>
     </row>
-    <row r="691" spans="1:1" s="4" customFormat="1">
+    <row r="691" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A691" s="19"/>
     </row>
-    <row r="692" spans="1:1" s="4" customFormat="1">
+    <row r="692" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A692" s="19"/>
     </row>
-    <row r="693" spans="1:1" s="4" customFormat="1">
+    <row r="693" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A693" s="19"/>
     </row>
-    <row r="694" spans="1:1" s="4" customFormat="1">
+    <row r="694" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A694" s="19"/>
     </row>
-    <row r="695" spans="1:1" s="4" customFormat="1">
+    <row r="695" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A695" s="19"/>
     </row>
-    <row r="696" spans="1:1" s="4" customFormat="1">
+    <row r="696" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A696" s="19"/>
     </row>
-    <row r="697" spans="1:1" s="4" customFormat="1">
+    <row r="697" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A697" s="19"/>
     </row>
-    <row r="698" spans="1:1" s="4" customFormat="1">
+    <row r="698" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A698" s="19"/>
     </row>
-    <row r="699" spans="1:1" s="4" customFormat="1">
+    <row r="699" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A699" s="19"/>
     </row>
-    <row r="700" spans="1:1" s="4" customFormat="1">
+    <row r="700" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A700" s="19"/>
     </row>
-    <row r="701" spans="1:1" s="4" customFormat="1">
+    <row r="701" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A701" s="19"/>
     </row>
-    <row r="702" spans="1:1" s="4" customFormat="1">
+    <row r="702" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A702" s="19"/>
     </row>
-    <row r="703" spans="1:1" s="4" customFormat="1">
+    <row r="703" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A703" s="19"/>
     </row>
-    <row r="704" spans="1:1" s="4" customFormat="1">
+    <row r="704" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A704" s="19"/>
     </row>
-    <row r="705" spans="1:1" s="4" customFormat="1">
+    <row r="705" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A705" s="19"/>
     </row>
-    <row r="706" spans="1:1" s="4" customFormat="1">
+    <row r="706" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A706" s="19"/>
     </row>
-    <row r="707" spans="1:1" s="4" customFormat="1">
+    <row r="707" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A707" s="19"/>
     </row>
-    <row r="708" spans="1:1" s="4" customFormat="1">
+    <row r="708" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A708" s="19"/>
     </row>
-    <row r="709" spans="1:1" s="4" customFormat="1">
+    <row r="709" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A709" s="19"/>
     </row>
-    <row r="710" spans="1:1" s="4" customFormat="1">
+    <row r="710" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A710" s="19"/>
     </row>
-    <row r="711" spans="1:1" s="4" customFormat="1">
+    <row r="711" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A711" s="19"/>
     </row>
-    <row r="712" spans="1:1" s="4" customFormat="1">
+    <row r="712" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A712" s="19"/>
     </row>
-    <row r="713" spans="1:1" s="4" customFormat="1">
+    <row r="713" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A713" s="19"/>
     </row>
-    <row r="714" spans="1:1" s="4" customFormat="1">
+    <row r="714" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A714" s="19"/>
     </row>
-    <row r="715" spans="1:1" s="4" customFormat="1">
+    <row r="715" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A715" s="19"/>
     </row>
-    <row r="716" spans="1:1" s="4" customFormat="1">
+    <row r="716" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A716" s="19"/>
     </row>
-    <row r="717" spans="1:1" s="4" customFormat="1">
+    <row r="717" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A717" s="19"/>
     </row>
-    <row r="718" spans="1:1" s="4" customFormat="1">
+    <row r="718" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A718" s="19"/>
     </row>
-    <row r="719" spans="1:1" s="4" customFormat="1">
+    <row r="719" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A719" s="19"/>
     </row>
-    <row r="720" spans="1:1" s="4" customFormat="1">
+    <row r="720" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A720" s="19"/>
     </row>
-    <row r="721" spans="1:1" s="4" customFormat="1">
+    <row r="721" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A721" s="19"/>
     </row>
-    <row r="722" spans="1:1" s="4" customFormat="1">
+    <row r="722" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A722" s="19"/>
     </row>
-    <row r="723" spans="1:1" s="4" customFormat="1">
+    <row r="723" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A723" s="19"/>
     </row>
-    <row r="724" spans="1:1" s="4" customFormat="1">
+    <row r="724" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A724" s="19"/>
     </row>
-    <row r="725" spans="1:1" s="4" customFormat="1">
+    <row r="725" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A725" s="19"/>
     </row>
-    <row r="726" spans="1:1" s="4" customFormat="1">
+    <row r="726" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A726" s="19"/>
     </row>
-    <row r="727" spans="1:1" s="4" customFormat="1">
+    <row r="727" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A727" s="19"/>
     </row>
-    <row r="728" spans="1:1" s="4" customFormat="1">
+    <row r="728" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A728" s="19"/>
     </row>
-    <row r="729" spans="1:1" s="4" customFormat="1">
+    <row r="729" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A729" s="19"/>
     </row>
-    <row r="730" spans="1:1" s="4" customFormat="1">
+    <row r="730" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A730" s="19"/>
     </row>
-    <row r="731" spans="1:1" s="4" customFormat="1">
+    <row r="731" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A731" s="19"/>
     </row>
-    <row r="732" spans="1:1" s="4" customFormat="1">
+    <row r="732" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A732" s="19"/>
     </row>
-    <row r="733" spans="1:1" s="4" customFormat="1">
+    <row r="733" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A733" s="19"/>
     </row>
-    <row r="734" spans="1:1" s="4" customFormat="1">
+    <row r="734" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A734" s="19"/>
     </row>
-    <row r="735" spans="1:1" s="4" customFormat="1">
+    <row r="735" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A735" s="19"/>
     </row>
-    <row r="736" spans="1:1" s="4" customFormat="1">
+    <row r="736" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A736" s="19"/>
     </row>
-    <row r="737" spans="1:1" s="4" customFormat="1">
+    <row r="737" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A737" s="19"/>
     </row>
-    <row r="738" spans="1:1" s="4" customFormat="1">
+    <row r="738" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A738" s="19"/>
     </row>
-    <row r="739" spans="1:1" s="4" customFormat="1">
+    <row r="739" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A739" s="19"/>
     </row>
-    <row r="740" spans="1:1" s="4" customFormat="1">
+    <row r="740" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A740" s="19"/>
     </row>
-    <row r="741" spans="1:1" s="4" customFormat="1">
+    <row r="741" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A741" s="19"/>
     </row>
-    <row r="742" spans="1:1" s="4" customFormat="1">
+    <row r="742" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A742" s="19"/>
     </row>
-    <row r="743" spans="1:1" s="4" customFormat="1">
+    <row r="743" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A743" s="19"/>
     </row>
-    <row r="744" spans="1:1" s="4" customFormat="1">
+    <row r="744" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A744" s="19"/>
     </row>
-    <row r="745" spans="1:1" s="4" customFormat="1">
+    <row r="745" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A745" s="19"/>
     </row>
-    <row r="746" spans="1:1" s="4" customFormat="1">
+    <row r="746" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A746" s="19"/>
     </row>
-    <row r="747" spans="1:1" s="4" customFormat="1">
+    <row r="747" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A747" s="19"/>
     </row>
-    <row r="748" spans="1:1" s="4" customFormat="1">
+    <row r="748" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A748" s="19"/>
     </row>
-    <row r="749" spans="1:1" s="4" customFormat="1">
+    <row r="749" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A749" s="19"/>
     </row>
-    <row r="750" spans="1:1" s="4" customFormat="1">
+    <row r="750" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A750" s="19"/>
     </row>
-    <row r="751" spans="1:1" s="4" customFormat="1">
+    <row r="751" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A751" s="19"/>
     </row>
-    <row r="752" spans="1:1" s="4" customFormat="1">
+    <row r="752" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A752" s="19"/>
     </row>
-    <row r="753" spans="1:1" s="4" customFormat="1">
+    <row r="753" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A753" s="19"/>
     </row>
-    <row r="754" spans="1:1" s="4" customFormat="1">
+    <row r="754" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A754" s="19"/>
     </row>
-    <row r="755" spans="1:1" s="4" customFormat="1">
+    <row r="755" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A755" s="19"/>
     </row>
-    <row r="756" spans="1:1" s="4" customFormat="1">
+    <row r="756" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A756" s="19"/>
     </row>
-    <row r="757" spans="1:1" s="4" customFormat="1">
+    <row r="757" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A757" s="19"/>
     </row>
-    <row r="758" spans="1:1" s="4" customFormat="1">
+    <row r="758" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A758" s="19"/>
     </row>
-    <row r="759" spans="1:1" s="4" customFormat="1">
+    <row r="759" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A759" s="19"/>
     </row>
-    <row r="760" spans="1:1" s="4" customFormat="1">
+    <row r="760" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A760" s="19"/>
     </row>
-    <row r="761" spans="1:1" s="4" customFormat="1">
+    <row r="761" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A761" s="19"/>
     </row>
-    <row r="762" spans="1:1" s="4" customFormat="1">
+    <row r="762" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A762" s="19"/>
     </row>
-    <row r="763" spans="1:1" s="4" customFormat="1">
+    <row r="763" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A763" s="19"/>
     </row>
-    <row r="764" spans="1:1" s="4" customFormat="1">
+    <row r="764" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A764" s="19"/>
     </row>
-    <row r="765" spans="1:1" s="4" customFormat="1">
+    <row r="765" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A765" s="19"/>
     </row>
-    <row r="766" spans="1:1" s="4" customFormat="1">
+    <row r="766" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A766" s="19"/>
     </row>
-    <row r="767" spans="1:1" s="4" customFormat="1">
+    <row r="767" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A767" s="19"/>
     </row>
-    <row r="768" spans="1:1" s="4" customFormat="1">
+    <row r="768" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A768" s="19"/>
     </row>
-    <row r="769" spans="1:1" s="4" customFormat="1">
+    <row r="769" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A769" s="19"/>
     </row>
-    <row r="770" spans="1:1" s="4" customFormat="1">
+    <row r="770" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A770" s="19"/>
     </row>
-    <row r="771" spans="1:1" s="4" customFormat="1">
+    <row r="771" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A771" s="19"/>
     </row>
-    <row r="772" spans="1:1" s="4" customFormat="1">
+    <row r="772" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A772" s="19"/>
     </row>
-    <row r="773" spans="1:1" s="4" customFormat="1">
+    <row r="773" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A773" s="19"/>
     </row>
-    <row r="774" spans="1:1" s="4" customFormat="1">
+    <row r="774" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A774" s="19"/>
     </row>
-    <row r="775" spans="1:1" s="4" customFormat="1">
+    <row r="775" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A775" s="19"/>
     </row>
-    <row r="776" spans="1:1" s="4" customFormat="1">
+    <row r="776" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A776" s="19"/>
     </row>
-    <row r="777" spans="1:1" s="4" customFormat="1">
+    <row r="777" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A777" s="19"/>
     </row>
-    <row r="778" spans="1:1" s="4" customFormat="1">
+    <row r="778" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A778" s="19"/>
     </row>
-    <row r="779" spans="1:1" s="4" customFormat="1">
+    <row r="779" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A779" s="19"/>
     </row>
-    <row r="780" spans="1:1" s="4" customFormat="1">
+    <row r="780" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A780" s="19"/>
     </row>
-    <row r="781" spans="1:1" s="4" customFormat="1">
+    <row r="781" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A781" s="19"/>
     </row>
-    <row r="782" spans="1:1" s="4" customFormat="1">
+    <row r="782" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A782" s="19"/>
     </row>
-    <row r="783" spans="1:1" s="4" customFormat="1">
+    <row r="783" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A783" s="19"/>
     </row>
-    <row r="784" spans="1:1" s="4" customFormat="1">
+    <row r="784" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A784" s="19"/>
     </row>
-    <row r="785" spans="1:1" s="4" customFormat="1">
+    <row r="785" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A785" s="19"/>
     </row>
-    <row r="786" spans="1:1" s="4" customFormat="1">
+    <row r="786" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A786" s="19"/>
     </row>
-    <row r="787" spans="1:1" s="4" customFormat="1">
+    <row r="787" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A787" s="19"/>
     </row>
-    <row r="788" spans="1:1" s="4" customFormat="1">
+    <row r="788" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A788" s="19"/>
     </row>
-    <row r="789" spans="1:1" s="4" customFormat="1">
+    <row r="789" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A789" s="19"/>
     </row>
-    <row r="790" spans="1:1" s="4" customFormat="1">
+    <row r="790" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A790" s="19"/>
     </row>
-    <row r="791" spans="1:1" s="4" customFormat="1">
+    <row r="791" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A791" s="19"/>
     </row>
-    <row r="792" spans="1:1" s="4" customFormat="1">
+    <row r="792" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A792" s="19"/>
     </row>
-    <row r="793" spans="1:1" s="4" customFormat="1">
+    <row r="793" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A793" s="19"/>
     </row>
-    <row r="794" spans="1:1" s="4" customFormat="1">
+    <row r="794" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A794" s="19"/>
     </row>
-    <row r="795" spans="1:1" s="4" customFormat="1">
+    <row r="795" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A795" s="19"/>
     </row>
-    <row r="796" spans="1:1" s="4" customFormat="1">
+    <row r="796" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A796" s="19"/>
     </row>
-    <row r="797" spans="1:1" s="4" customFormat="1">
+    <row r="797" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A797" s="19"/>
     </row>
-    <row r="798" spans="1:1" s="4" customFormat="1">
+    <row r="798" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A798" s="19"/>
     </row>
-    <row r="799" spans="1:1" s="4" customFormat="1">
+    <row r="799" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A799" s="19"/>
     </row>
-    <row r="800" spans="1:1" s="4" customFormat="1">
+    <row r="800" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A800" s="19"/>
     </row>
-    <row r="801" spans="1:1" s="4" customFormat="1">
+    <row r="801" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A801" s="19"/>
     </row>
-    <row r="802" spans="1:1" s="4" customFormat="1">
+    <row r="802" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A802" s="19"/>
     </row>
-    <row r="803" spans="1:1" s="4" customFormat="1">
+    <row r="803" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A803" s="19"/>
     </row>
-    <row r="804" spans="1:1" s="4" customFormat="1">
+    <row r="804" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A804" s="19"/>
     </row>
-    <row r="805" spans="1:1" s="4" customFormat="1">
+    <row r="805" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A805" s="19"/>
     </row>
-    <row r="806" spans="1:1" s="4" customFormat="1">
+    <row r="806" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A806" s="19"/>
     </row>
-    <row r="807" spans="1:1" s="4" customFormat="1">
+    <row r="807" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A807" s="19"/>
     </row>
-    <row r="808" spans="1:1" s="4" customFormat="1">
+    <row r="808" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A808" s="19"/>
     </row>
-    <row r="809" spans="1:1" s="4" customFormat="1">
+    <row r="809" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A809" s="19"/>
     </row>
-    <row r="810" spans="1:1" s="4" customFormat="1">
+    <row r="810" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A810" s="19"/>
     </row>
-    <row r="811" spans="1:1" s="4" customFormat="1">
+    <row r="811" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A811" s="19"/>
     </row>
-    <row r="812" spans="1:1" s="4" customFormat="1">
+    <row r="812" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A812" s="19"/>
     </row>
-    <row r="813" spans="1:1" s="4" customFormat="1">
+    <row r="813" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A813" s="19"/>
     </row>
-    <row r="814" spans="1:1" s="4" customFormat="1">
+    <row r="814" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A814" s="19"/>
     </row>
-    <row r="815" spans="1:1" s="4" customFormat="1">
+    <row r="815" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A815" s="19"/>
     </row>
-    <row r="816" spans="1:1" s="4" customFormat="1">
+    <row r="816" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A816" s="19"/>
     </row>
-    <row r="817" spans="1:1" s="4" customFormat="1">
+    <row r="817" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A817" s="19"/>
     </row>
-    <row r="818" spans="1:1">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
     </row>
-    <row r="819" spans="1:1">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
     </row>
-    <row r="820" spans="1:1">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
     </row>
-    <row r="821" spans="1:1">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
     </row>
-    <row r="822" spans="1:1">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
     </row>
-    <row r="823" spans="1:1">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
     </row>
-    <row r="824" spans="1:1">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
     </row>
-    <row r="825" spans="1:1">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
     </row>
-    <row r="826" spans="1:1">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
     </row>
-    <row r="827" spans="1:1">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
     </row>
-    <row r="828" spans="1:1">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
     </row>
-    <row r="829" spans="1:1">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
     </row>
-    <row r="830" spans="1:1">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
     </row>
-    <row r="831" spans="1:1">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
     </row>
-    <row r="832" spans="1:1">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
     </row>
-    <row r="833" spans="1:1">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
     </row>
-    <row r="834" spans="1:1">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
     </row>
-    <row r="835" spans="1:1">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
     </row>
-    <row r="836" spans="1:1">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
     </row>
-    <row r="837" spans="1:1">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
     </row>
-    <row r="838" spans="1:1">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
     </row>
-    <row r="839" spans="1:1">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
     </row>
-    <row r="840" spans="1:1">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
     </row>
-    <row r="841" spans="1:1">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
     </row>
-    <row r="842" spans="1:1">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
     </row>
-    <row r="843" spans="1:1">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
     </row>
-    <row r="844" spans="1:1">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
     </row>
-    <row r="845" spans="1:1">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
     </row>
-    <row r="846" spans="1:1">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
     </row>
-    <row r="847" spans="1:1">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
     </row>
-    <row r="848" spans="1:1">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
     </row>
-    <row r="849" spans="1:1">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
     </row>
-    <row r="850" spans="1:1">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
     </row>
-    <row r="851" spans="1:1">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
     </row>
-    <row r="852" spans="1:1">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
     </row>
-    <row r="853" spans="1:1">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
     </row>
-    <row r="854" spans="1:1">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
     </row>
-    <row r="855" spans="1:1">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
     </row>
-    <row r="856" spans="1:1">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
     </row>
-    <row r="857" spans="1:1">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
     </row>
-    <row r="858" spans="1:1">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
     </row>
-    <row r="859" spans="1:1">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
     </row>
-    <row r="860" spans="1:1">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
     </row>
-    <row r="861" spans="1:1">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
     </row>
-    <row r="862" spans="1:1">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
     </row>
-    <row r="863" spans="1:1">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
     </row>
-    <row r="864" spans="1:1">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A864" s="1"/>
     </row>
-    <row r="865" spans="1:1">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A865" s="1"/>
     </row>
-    <row r="866" spans="1:1">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A866" s="1"/>
     </row>
-    <row r="867" spans="1:1">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A867" s="1"/>
     </row>
-    <row r="868" spans="1:1">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A868" s="1"/>
     </row>
-    <row r="869" spans="1:1">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A869" s="1"/>
     </row>
-    <row r="870" spans="1:1">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
     </row>
-    <row r="871" spans="1:1">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A871" s="1"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{05A1A731-3F4F-40FE-B386-DDA871C5E4C7}" scale="80" showPageBreaks="1">
-      <pane ySplit="3" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M474" sqref="M474"/>
+    <customSheetView guid="{A48D2441-DD55-4B7D-BF79-B4F2A1EBC851}" scale="90">
+      <pane ySplit="3" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G218" sqref="G218"/>
       <pageMargins left="0.2" right="0.19685039370078741" top="0.39370078740157483" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.15748031496062992"/>
       <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{E5948E68-A68D-415A-A1EA-89814C35EF98}">
-      <selection activeCell="O5" sqref="O5"/>
+    <customSheetView guid="{DB14BCEC-5663-473A-8DE0-EC9F9CC63B80}" scale="90">
+      <pane ySplit="3" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C468" sqref="C468"/>
       <pageMargins left="0.2" right="0.19685039370078741" top="0.39370078740157483" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.15748031496062992"/>
       <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{CC017067-69FB-4FB4-AC19-DA8F56FB3468}" scale="80">
-      <pane ySplit="3" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J151" sqref="J151"/>
+    <customSheetView guid="{6A51605E-CE25-4A5A-8979-0D24A3C77D00}" showPageBreaks="1" printArea="1" topLeftCell="A459">
+      <selection activeCell="B461" sqref="B461"/>
       <pageMargins left="0.2" right="0.19685039370078741" top="0.39370078740157483" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.15748031496062992"/>
       <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId3"/>
     </customSheetView>
@@ -38742,19 +38180,34 @@
       <pageMargins left="0.2" right="0.19685039370078741" top="0.39370078740157483" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.15748031496062992"/>
       <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{6A51605E-CE25-4A5A-8979-0D24A3C77D00}" showPageBreaks="1" printArea="1" topLeftCell="A459">
-      <selection activeCell="B461" sqref="B461"/>
+    <customSheetView guid="{CC017067-69FB-4FB4-AC19-DA8F56FB3468}" scale="80">
+      <pane ySplit="3" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J151" sqref="J151"/>
       <pageMargins left="0.2" right="0.19685039370078741" top="0.39370078740157483" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.15748031496062992"/>
       <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{DB14BCEC-5663-473A-8DE0-EC9F9CC63B80}" scale="90">
-      <pane ySplit="3" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C468" sqref="C468"/>
+    <customSheetView guid="{E5948E68-A68D-415A-A1EA-89814C35EF98}">
+      <selection activeCell="O5" sqref="O5"/>
       <pageMargins left="0.2" right="0.19685039370078741" top="0.39370078740157483" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.15748031496062992"/>
       <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId6"/>
     </customSheetView>
+    <customSheetView guid="{05A1A731-3F4F-40FE-B386-DDA871C5E4C7}" scale="80" showPageBreaks="1">
+      <pane ySplit="3" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M474" sqref="M474"/>
+      <pageMargins left="0.2" right="0.19685039370078741" top="0.39370078740157483" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.15748031496062992"/>
+      <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId7"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="19">
+    <mergeCell ref="G154:G155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="N154:N155"/>
+    <mergeCell ref="M154:M155"/>
+    <mergeCell ref="L154:L155"/>
+    <mergeCell ref="I154:I155"/>
+    <mergeCell ref="H154:H155"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G117:G118"/>
     <mergeCell ref="C117:C118"/>
@@ -38765,18 +38218,9 @@
     <mergeCell ref="M117:M118"/>
     <mergeCell ref="I117:I118"/>
     <mergeCell ref="H117:H118"/>
-    <mergeCell ref="G154:G155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="N154:N155"/>
-    <mergeCell ref="M154:M155"/>
-    <mergeCell ref="L154:L155"/>
-    <mergeCell ref="I154:I155"/>
-    <mergeCell ref="H154:H155"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.19685039370078741" top="0.39370078740157483" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId8"/>
   <ignoredErrors>
     <ignoredError sqref="B12 B4 B7:B9" numberStoredAsText="1"/>
   </ignoredErrors>
